--- a/Bulk Loads/1123/_PRELIMINARY UTILITY EXPORT - FS_formatted.xlsx
+++ b/Bulk Loads/1123/_PRELIMINARY UTILITY EXPORT - FS_formatted.xlsx
@@ -507,7 +507,7 @@
     <row r="4" ht="27" customHeight="1">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>August 01, 2024</t>
+          <t>August 05, 2024</t>
         </is>
       </c>
     </row>
@@ -1763,10 +1763,8 @@
           <t>1/2"</t>
         </is>
       </c>
-      <c r="J53" t="inlineStr">
-        <is>
-          <t>50 EA</t>
-        </is>
+      <c r="J53" t="n">
+        <v>50</v>
       </c>
       <c r="S53" t="inlineStr">
         <is>
@@ -2479,10 +2477,8 @@
       </c>
       <c r="F83" s="5" t="n"/>
       <c r="G83" s="6" t="n"/>
-      <c r="M83" t="inlineStr">
-        <is>
-          <t>100000 EA</t>
-        </is>
+      <c r="M83" t="n">
+        <v>100000</v>
       </c>
       <c r="S83" t="inlineStr">
         <is>
@@ -2614,15 +2610,11 @@
         <f>IF(E88&gt;1,(1.732*D88*F88)/1000,(D88*F88)/1000)</f>
         <v/>
       </c>
-      <c r="N88" t="inlineStr">
-        <is>
-          <t>2643</t>
-        </is>
-      </c>
-      <c r="O88" t="inlineStr">
-        <is>
-          <t>793 EA</t>
-        </is>
+      <c r="N88" t="n">
+        <v>5286</v>
+      </c>
+      <c r="O88" t="n">
+        <v>1586</v>
       </c>
       <c r="S88" t="inlineStr">
         <is>

--- a/Bulk Loads/1123/_PRELIMINARY UTILITY EXPORT - FS_formatted.xlsx
+++ b/Bulk Loads/1123/_PRELIMINARY UTILITY EXPORT - FS_formatted.xlsx
@@ -507,7 +507,7 @@
     <row r="4" ht="27" customHeight="1">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>August 05, 2024</t>
+          <t>August 06, 2024</t>
         </is>
       </c>
     </row>

--- a/Bulk Loads/1123/_PRELIMINARY UTILITY EXPORT - FS_formatted.xlsx
+++ b/Bulk Loads/1123/_PRELIMINARY UTILITY EXPORT - FS_formatted.xlsx
@@ -69,12 +69,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -507,7 +513,7 @@
     <row r="4" ht="27" customHeight="1">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>August 06, 2024</t>
+          <t>August 29, 2024</t>
         </is>
       </c>
     </row>
@@ -638,10 +644,10 @@
       <c r="S8" s="4" t="n"/>
     </row>
     <row r="9">
-      <c r="A9" t="n">
+      <c r="A9" s="5" t="n">
         <v>101</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B9" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C9" t="inlineStr">
@@ -655,10 +661,10 @@
       <c r="E9" t="n">
         <v>1</v>
       </c>
-      <c r="F9" s="5" t="n">
+      <c r="F9" s="7" t="n">
         <v>11.5</v>
       </c>
-      <c r="G9" s="6">
+      <c r="G9" s="8">
         <f>IF(E9&gt;1,(1.732*D9*F9)/1000,(D9*F9)/1000)</f>
         <v/>
       </c>
@@ -682,10 +688,10 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="n">
+      <c r="A10" s="5" t="n">
         <v>102</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B10" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C10" t="inlineStr">
@@ -693,8 +699,8 @@
           <t>ICE BIN</t>
         </is>
       </c>
-      <c r="F10" s="5" t="n"/>
-      <c r="G10" s="6" t="n"/>
+      <c r="F10" s="7" t="n"/>
+      <c r="G10" s="8" t="n"/>
       <c r="K10" t="inlineStr">
         <is>
           <t>1"</t>
@@ -707,10 +713,10 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="n">
+      <c r="A11" s="5" t="n">
         <v>103</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B11" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C11" t="inlineStr">
@@ -724,10 +730,10 @@
       <c r="E11" t="n">
         <v>1</v>
       </c>
-      <c r="F11" s="5" t="n">
+      <c r="F11" s="7" t="n">
         <v>15.2</v>
       </c>
-      <c r="G11" s="6">
+      <c r="G11" s="8">
         <f>IF(E11&gt;1,(1.732*D11*F11)/1000,(D11*F11)/1000)</f>
         <v/>
       </c>
@@ -751,10 +757,10 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="n">
+      <c r="A12" s="5" t="n">
         <v>104</v>
       </c>
-      <c r="B12" t="n">
+      <c r="B12" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C12" t="inlineStr">
@@ -762,8 +768,8 @@
           <t>WATER FILTRATION SYSTEM</t>
         </is>
       </c>
-      <c r="F12" s="5" t="n"/>
-      <c r="G12" s="6" t="n"/>
+      <c r="F12" s="7" t="n"/>
+      <c r="G12" s="8" t="n"/>
       <c r="H12" t="inlineStr">
         <is>
           <t>3/4"</t>
@@ -781,10 +787,10 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="n">
+      <c r="A13" s="5" t="n">
         <v>105</v>
       </c>
-      <c r="B13" t="n">
+      <c r="B13" s="6" t="n">
         <v>2</v>
       </c>
       <c r="C13" t="inlineStr">
@@ -792,8 +798,8 @@
           <t>ICE CART</t>
         </is>
       </c>
-      <c r="F13" s="5" t="n"/>
-      <c r="G13" s="6" t="n"/>
+      <c r="F13" s="7" t="n"/>
+      <c r="G13" s="8" t="n"/>
       <c r="S13" t="inlineStr">
         <is>
           <t>MOBILE 250LBS</t>
@@ -801,10 +807,10 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="n">
+      <c r="A14" s="5" t="n">
         <v>106</v>
       </c>
-      <c r="B14" t="n">
+      <c r="B14" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C14" t="inlineStr">
@@ -812,8 +818,8 @@
           <t>WATER FILTRATION SYSTEM</t>
         </is>
       </c>
-      <c r="F14" s="5" t="n"/>
-      <c r="G14" s="6" t="n"/>
+      <c r="F14" s="7" t="n"/>
+      <c r="G14" s="8" t="n"/>
       <c r="H14" t="inlineStr">
         <is>
           <t>3/4"</t>
@@ -831,10 +837,10 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="n">
+      <c r="A15" s="5" t="n">
         <v>107</v>
       </c>
-      <c r="B15" t="n">
+      <c r="B15" s="6" t="n">
         <v>3</v>
       </c>
       <c r="C15" t="inlineStr">
@@ -842,8 +848,8 @@
           <t>DRY STORAGE SHELVING</t>
         </is>
       </c>
-      <c r="F15" s="5" t="n"/>
-      <c r="G15" s="6" t="n"/>
+      <c r="F15" s="7" t="n"/>
+      <c r="G15" s="8" t="n"/>
       <c r="S15" t="inlineStr">
         <is>
           <t>FIXED FIVE TIER</t>
@@ -851,10 +857,10 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="n">
+      <c r="A16" s="5" t="n">
         <v>108</v>
       </c>
-      <c r="B16" t="n">
+      <c r="B16" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C16" t="inlineStr">
@@ -862,8 +868,8 @@
           <t>TRASH RECEPTACLE</t>
         </is>
       </c>
-      <c r="F16" s="5" t="n"/>
-      <c r="G16" s="6" t="n"/>
+      <c r="F16" s="7" t="n"/>
+      <c r="G16" s="8" t="n"/>
       <c r="S16" t="inlineStr">
         <is>
           <t>SLIM JIM</t>
@@ -871,10 +877,10 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="n">
+      <c r="A17" s="5" t="n">
         <v>109</v>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B17" s="6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -884,14 +890,14 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F17" s="5" t="n"/>
-      <c r="G17" s="6" t="n"/>
+      <c r="F17" s="7" t="n"/>
+      <c r="G17" s="8" t="n"/>
     </row>
     <row r="18">
-      <c r="A18" t="n">
+      <c r="A18" s="5" t="n">
         <v>110</v>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B18" s="6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -901,14 +907,14 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F18" s="5" t="n"/>
-      <c r="G18" s="6" t="n"/>
+      <c r="F18" s="7" t="n"/>
+      <c r="G18" s="8" t="n"/>
     </row>
     <row r="19">
-      <c r="A19" t="n">
+      <c r="A19" s="5" t="n">
         <v>111</v>
       </c>
-      <c r="B19" t="n">
+      <c r="B19" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C19" t="inlineStr">
@@ -916,8 +922,8 @@
           <t>HAND SINK</t>
         </is>
       </c>
-      <c r="F19" s="5" t="n"/>
-      <c r="G19" s="6" t="n"/>
+      <c r="F19" s="7" t="n"/>
+      <c r="G19" s="8" t="n"/>
       <c r="H19" t="inlineStr">
         <is>
           <t>1/2"</t>
@@ -943,10 +949,10 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="n">
+      <c r="A20" s="5" t="n">
         <v>112</v>
       </c>
-      <c r="B20" t="n">
+      <c r="B20" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C20" t="inlineStr">
@@ -954,8 +960,8 @@
           <t>WORK TABLE</t>
         </is>
       </c>
-      <c r="F20" s="5" t="n"/>
-      <c r="G20" s="6" t="n"/>
+      <c r="F20" s="7" t="n"/>
+      <c r="G20" s="8" t="n"/>
       <c r="S20" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
@@ -963,10 +969,10 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="n">
+      <c r="A21" s="5" t="n">
         <v>113</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B21" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C21" t="inlineStr">
@@ -974,8 +980,8 @@
           <t>DOUBLE WALL SHELF</t>
         </is>
       </c>
-      <c r="F21" s="5" t="n"/>
-      <c r="G21" s="6" t="n"/>
+      <c r="F21" s="7" t="n"/>
+      <c r="G21" s="8" t="n"/>
       <c r="S21" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
@@ -983,10 +989,10 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="n">
+      <c r="A22" s="5" t="n">
         <v>114</v>
       </c>
-      <c r="B22" t="n">
+      <c r="B22" s="6" t="n">
         <v>2</v>
       </c>
       <c r="C22" t="inlineStr">
@@ -1000,19 +1006,19 @@
       <c r="E22" t="n">
         <v>1</v>
       </c>
-      <c r="F22" s="5" t="n">
+      <c r="F22" s="7" t="n">
         <v>25.8</v>
       </c>
-      <c r="G22" s="6">
+      <c r="G22" s="8">
         <f>IF(E22&gt;1,(1.732*D22*F22)/1000,(D22*F22)/1000)</f>
         <v/>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="n">
+      <c r="A23" s="5" t="n">
         <v>115</v>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B23" s="6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -1022,14 +1028,14 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F23" s="5" t="n"/>
-      <c r="G23" s="6" t="n"/>
+      <c r="F23" s="7" t="n"/>
+      <c r="G23" s="8" t="n"/>
     </row>
     <row r="24">
-      <c r="A24" t="n">
+      <c r="A24" s="5" t="n">
         <v>116</v>
       </c>
-      <c r="B24" t="n">
+      <c r="B24" s="6" t="n">
         <v>2</v>
       </c>
       <c r="C24" t="inlineStr">
@@ -1037,8 +1043,8 @@
           <t>RICE WARMER STAND</t>
         </is>
       </c>
-      <c r="F24" s="5" t="n"/>
-      <c r="G24" s="6" t="n"/>
+      <c r="F24" s="7" t="n"/>
+      <c r="G24" s="8" t="n"/>
       <c r="S24" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION MOBILE</t>
@@ -1046,10 +1052,10 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="n">
+      <c r="A25" s="5" t="n">
         <v>117</v>
       </c>
-      <c r="B25" t="n">
+      <c r="B25" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C25" t="inlineStr">
@@ -1063,10 +1069,10 @@
       <c r="E25" t="n">
         <v>3</v>
       </c>
-      <c r="F25" s="5" t="n">
+      <c r="F25" s="7" t="n">
         <v>15.9</v>
       </c>
-      <c r="G25" s="6">
+      <c r="G25" s="8">
         <f>IF(E25&gt;1,(1.732*D25*F25)/1000,(D25*F25)/1000)</f>
         <v/>
       </c>
@@ -1087,10 +1093,10 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="n">
+      <c r="A26" s="5" t="n">
         <v>118</v>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B26" s="6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -1100,14 +1106,14 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F26" s="5" t="n"/>
-      <c r="G26" s="6" t="n"/>
+      <c r="F26" s="7" t="n"/>
+      <c r="G26" s="8" t="n"/>
     </row>
     <row r="27">
-      <c r="A27" t="n">
+      <c r="A27" s="5" t="n">
         <v>119</v>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B27" s="6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -1117,14 +1123,14 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F27" s="5" t="n"/>
-      <c r="G27" s="6" t="n"/>
+      <c r="F27" s="7" t="n"/>
+      <c r="G27" s="8" t="n"/>
     </row>
     <row r="28">
-      <c r="A28" t="n">
+      <c r="A28" s="5" t="n">
         <v>120</v>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B28" s="6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -1134,14 +1140,14 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F28" s="5" t="n"/>
-      <c r="G28" s="6" t="n"/>
+      <c r="F28" s="7" t="n"/>
+      <c r="G28" s="8" t="n"/>
     </row>
     <row r="29">
-      <c r="A29" t="n">
+      <c r="A29" s="5" t="n">
         <v>121</v>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B29" s="6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -1151,14 +1157,14 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F29" s="5" t="n"/>
-      <c r="G29" s="6" t="n"/>
+      <c r="F29" s="7" t="n"/>
+      <c r="G29" s="8" t="n"/>
     </row>
     <row r="30">
-      <c r="A30" t="n">
+      <c r="A30" s="5" t="n">
         <v>122</v>
       </c>
-      <c r="B30" t="n">
+      <c r="B30" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C30" t="inlineStr">
@@ -1172,10 +1178,10 @@
       <c r="E30" t="n">
         <v>1</v>
       </c>
-      <c r="F30" s="5" t="n">
+      <c r="F30" s="7" t="n">
         <v>20</v>
       </c>
-      <c r="G30" s="6">
+      <c r="G30" s="8">
         <f>IF(E30&gt;1,(1.732*D30*F30)/1000,(D30*F30)/1000)</f>
         <v/>
       </c>
@@ -1186,10 +1192,10 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="n">
+      <c r="A31" s="5" t="n">
         <v>123</v>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B31" s="6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -1199,14 +1205,14 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F31" s="5" t="n"/>
-      <c r="G31" s="6" t="n"/>
+      <c r="F31" s="7" t="n"/>
+      <c r="G31" s="8" t="n"/>
     </row>
     <row r="32">
-      <c r="A32" t="n">
+      <c r="A32" s="5" t="n">
         <v>124</v>
       </c>
-      <c r="B32" t="n">
+      <c r="B32" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C32" t="inlineStr">
@@ -1220,10 +1226,10 @@
       <c r="E32" t="n">
         <v>1</v>
       </c>
-      <c r="F32" s="5" t="n">
+      <c r="F32" s="7" t="n">
         <v>22</v>
       </c>
-      <c r="G32" s="6">
+      <c r="G32" s="8">
         <f>IF(E32&gt;1,(1.732*D32*F32)/1000,(D32*F32)/1000)</f>
         <v/>
       </c>
@@ -1234,10 +1240,10 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="n">
+      <c r="A33" s="5" t="n">
         <v>125</v>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B33" s="6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -1247,14 +1253,14 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F33" s="5" t="n"/>
-      <c r="G33" s="6" t="n"/>
+      <c r="F33" s="7" t="n"/>
+      <c r="G33" s="8" t="n"/>
     </row>
     <row r="34">
-      <c r="A34" t="n">
+      <c r="A34" s="5" t="n">
         <v>126</v>
       </c>
-      <c r="B34" t="n">
+      <c r="B34" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C34" t="inlineStr">
@@ -1262,8 +1268,8 @@
           <t>DOUBLE WALL SHELF</t>
         </is>
       </c>
-      <c r="F34" s="5" t="n"/>
-      <c r="G34" s="6" t="n"/>
+      <c r="F34" s="7" t="n"/>
+      <c r="G34" s="8" t="n"/>
       <c r="S34" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
@@ -1271,10 +1277,10 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="n">
+      <c r="A35" s="5" t="n">
         <v>127</v>
       </c>
-      <c r="B35" t="n">
+      <c r="B35" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C35" t="inlineStr">
@@ -1288,10 +1294,10 @@
       <c r="E35" t="n">
         <v>1</v>
       </c>
-      <c r="F35" s="5" t="n">
+      <c r="F35" s="7" t="n">
         <v>5.4</v>
       </c>
-      <c r="G35" s="6">
+      <c r="G35" s="8">
         <f>IF(E35&gt;1,(1.732*D35*F35)/1000,(D35*F35)/1000)</f>
         <v/>
       </c>
@@ -1302,10 +1308,10 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="n">
+      <c r="A36" s="5" t="n">
         <v>128</v>
       </c>
-      <c r="B36" t="n">
+      <c r="B36" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C36" t="inlineStr">
@@ -1319,10 +1325,10 @@
       <c r="E36" t="n">
         <v>1</v>
       </c>
-      <c r="F36" s="5" t="n">
+      <c r="F36" s="7" t="n">
         <v>2.9</v>
       </c>
-      <c r="G36" s="6">
+      <c r="G36" s="8">
         <f>IF(E36&gt;1,(1.732*D36*F36)/1000,(D36*F36)/1000)</f>
         <v/>
       </c>
@@ -1333,10 +1339,10 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="n">
+      <c r="A37" s="5" t="n">
         <v>129</v>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="B37" s="6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -1346,14 +1352,14 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F37" s="5" t="n"/>
-      <c r="G37" s="6" t="n"/>
+      <c r="F37" s="7" t="n"/>
+      <c r="G37" s="8" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" t="n">
+      <c r="A38" s="5" t="n">
         <v>130</v>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="B38" s="6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -1363,14 +1369,14 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F38" s="5" t="n"/>
-      <c r="G38" s="6" t="n"/>
+      <c r="F38" s="7" t="n"/>
+      <c r="G38" s="8" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" t="n">
+      <c r="A39" s="5" t="n">
         <v>131</v>
       </c>
-      <c r="B39" t="n">
+      <c r="B39" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C39" t="inlineStr">
@@ -1384,10 +1390,10 @@
       <c r="E39" t="n">
         <v>1</v>
       </c>
-      <c r="F39" s="5" t="n">
+      <c r="F39" s="7" t="n">
         <v>7.9</v>
       </c>
-      <c r="G39" s="6">
+      <c r="G39" s="8">
         <f>IF(E39&gt;1,(1.732*D39*F39)/1000,(D39*F39)/1000)</f>
         <v/>
       </c>
@@ -1398,10 +1404,10 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="n">
+      <c r="A40" s="5" t="n">
         <v>132</v>
       </c>
-      <c r="B40" t="n">
+      <c r="B40" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C40" t="inlineStr">
@@ -1415,10 +1421,10 @@
       <c r="E40" t="n">
         <v>1</v>
       </c>
-      <c r="F40" s="5" t="n">
+      <c r="F40" s="7" t="n">
         <v>5</v>
       </c>
-      <c r="G40" s="6">
+      <c r="G40" s="8">
         <f>IF(E40&gt;1,(1.732*D40*F40)/1000,(D40*F40)/1000)</f>
         <v/>
       </c>
@@ -1429,10 +1435,10 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="n">
+      <c r="A41" s="5" t="n">
         <v>133</v>
       </c>
-      <c r="B41" t="n">
+      <c r="B41" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C41" t="inlineStr">
@@ -1440,8 +1446,8 @@
           <t>PASS THRU SHELF</t>
         </is>
       </c>
-      <c r="F41" s="5" t="n"/>
-      <c r="G41" s="6" t="n"/>
+      <c r="F41" s="7" t="n"/>
+      <c r="G41" s="8" t="n"/>
       <c r="S41" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
@@ -1449,10 +1455,10 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="n">
+      <c r="A42" s="5" t="n">
         <v>134</v>
       </c>
-      <c r="B42" t="n">
+      <c r="B42" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C42" t="inlineStr">
@@ -1466,10 +1472,10 @@
       <c r="E42" t="n">
         <v>1</v>
       </c>
-      <c r="F42" s="5" t="n">
+      <c r="F42" s="7" t="n">
         <v>40</v>
       </c>
-      <c r="G42" s="6">
+      <c r="G42" s="8">
         <f>IF(E42&gt;1,(1.732*D42*F42)/1000,(D42*F42)/1000)</f>
         <v/>
       </c>
@@ -1498,10 +1504,10 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="n">
+      <c r="A43" s="5" t="n">
         <v>135</v>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="B43" s="6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -1511,14 +1517,14 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F43" s="5" t="n"/>
-      <c r="G43" s="6" t="n"/>
+      <c r="F43" s="7" t="n"/>
+      <c r="G43" s="8" t="n"/>
     </row>
     <row r="44">
-      <c r="A44" t="n">
+      <c r="A44" s="5" t="n">
         <v>136</v>
       </c>
-      <c r="B44" t="n">
+      <c r="B44" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C44" t="inlineStr">
@@ -1526,8 +1532,8 @@
           <t>DOUBLE WALL SHELF</t>
         </is>
       </c>
-      <c r="F44" s="5" t="n"/>
-      <c r="G44" s="6" t="n"/>
+      <c r="F44" s="7" t="n"/>
+      <c r="G44" s="8" t="n"/>
       <c r="S44" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
@@ -1535,10 +1541,10 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="n">
+      <c r="A45" s="5" t="n">
         <v>137</v>
       </c>
-      <c r="B45" t="n">
+      <c r="B45" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C45" t="inlineStr">
@@ -1546,8 +1552,8 @@
           <t>TRASH RECEPTACLE</t>
         </is>
       </c>
-      <c r="F45" s="5" t="n"/>
-      <c r="G45" s="6" t="n"/>
+      <c r="F45" s="7" t="n"/>
+      <c r="G45" s="8" t="n"/>
       <c r="S45" t="inlineStr">
         <is>
           <t>WITH LID AND DOLLY</t>
@@ -1555,10 +1561,10 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="n">
+      <c r="A46" s="5" t="n">
         <v>138</v>
       </c>
-      <c r="B46" t="n">
+      <c r="B46" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C46" t="inlineStr">
@@ -1572,19 +1578,19 @@
       <c r="E46" t="n">
         <v>1</v>
       </c>
-      <c r="F46" s="5" t="n">
+      <c r="F46" s="7" t="n">
         <v>13</v>
       </c>
-      <c r="G46" s="6">
+      <c r="G46" s="8">
         <f>IF(E46&gt;1,(1.732*D46*F46)/1000,(D46*F46)/1000)</f>
         <v/>
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="n">
+      <c r="A47" s="5" t="n">
         <v>139</v>
       </c>
-      <c r="B47" t="inlineStr">
+      <c r="B47" s="6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -1594,14 +1600,14 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F47" s="5" t="n"/>
-      <c r="G47" s="6" t="n"/>
+      <c r="F47" s="7" t="n"/>
+      <c r="G47" s="8" t="n"/>
     </row>
     <row r="48">
-      <c r="A48" t="n">
+      <c r="A48" s="5" t="n">
         <v>140</v>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="B48" s="6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -1611,14 +1617,14 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F48" s="5" t="n"/>
-      <c r="G48" s="6" t="n"/>
+      <c r="F48" s="7" t="n"/>
+      <c r="G48" s="8" t="n"/>
     </row>
     <row r="49">
-      <c r="A49" t="n">
+      <c r="A49" s="5" t="n">
         <v>141</v>
       </c>
-      <c r="B49" t="n">
+      <c r="B49" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C49" t="inlineStr">
@@ -1632,19 +1638,19 @@
       <c r="E49" t="n">
         <v>1</v>
       </c>
-      <c r="F49" s="5" t="n">
+      <c r="F49" s="7" t="n">
         <v>3</v>
       </c>
-      <c r="G49" s="6">
+      <c r="G49" s="8">
         <f>IF(E49&gt;1,(1.732*D49*F49)/1000,(D49*F49)/1000)</f>
         <v/>
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="n">
+      <c r="A50" s="5" t="n">
         <v>142</v>
       </c>
-      <c r="B50" t="n">
+      <c r="B50" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C50" t="inlineStr">
@@ -1658,10 +1664,10 @@
       <c r="E50" t="n">
         <v>1</v>
       </c>
-      <c r="F50" s="5" t="n">
+      <c r="F50" s="7" t="n">
         <v>8</v>
       </c>
-      <c r="G50" s="6">
+      <c r="G50" s="8">
         <f>IF(E50&gt;1,(1.732*D50*F50)/1000,(D50*F50)/1000)</f>
         <v/>
       </c>
@@ -1677,10 +1683,10 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="n">
+      <c r="A51" s="5" t="n">
         <v>143</v>
       </c>
-      <c r="B51" t="n">
+      <c r="B51" s="6" t="n">
         <v>2</v>
       </c>
       <c r="C51" t="inlineStr">
@@ -1688,8 +1694,8 @@
           <t>FISH SINK</t>
         </is>
       </c>
-      <c r="F51" s="5" t="n"/>
-      <c r="G51" s="6" t="n"/>
+      <c r="F51" s="7" t="n"/>
+      <c r="G51" s="8" t="n"/>
       <c r="K51" t="inlineStr">
         <is>
           <t>1-1/2" EA</t>
@@ -1702,10 +1708,10 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="n">
+      <c r="A52" s="5" t="n">
         <v>144</v>
       </c>
-      <c r="B52" t="n">
+      <c r="B52" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C52" t="inlineStr">
@@ -1713,8 +1719,8 @@
           <t>HAND SINK</t>
         </is>
       </c>
-      <c r="F52" s="5" t="n"/>
-      <c r="G52" s="6" t="n"/>
+      <c r="F52" s="7" t="n"/>
+      <c r="G52" s="8" t="n"/>
       <c r="H52" t="inlineStr">
         <is>
           <t>1/2"</t>
@@ -1740,10 +1746,10 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="n">
+      <c r="A53" s="5" t="n">
         <v>145</v>
       </c>
-      <c r="B53" t="n">
+      <c r="B53" s="6" t="n">
         <v>2</v>
       </c>
       <c r="C53" t="inlineStr">
@@ -1751,8 +1757,8 @@
           <t>PRE-RINSE UNIT</t>
         </is>
       </c>
-      <c r="F53" s="5" t="n"/>
-      <c r="G53" s="6" t="n"/>
+      <c r="F53" s="7" t="n"/>
+      <c r="G53" s="8" t="n"/>
       <c r="H53" t="inlineStr">
         <is>
           <t>1/2"</t>
@@ -1773,10 +1779,10 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="n">
+      <c r="A54" s="5" t="n">
         <v>146</v>
       </c>
-      <c r="B54" t="n">
+      <c r="B54" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C54" t="inlineStr">
@@ -1784,8 +1790,8 @@
           <t>TRASH RECEPTACLE</t>
         </is>
       </c>
-      <c r="F54" s="5" t="n"/>
-      <c r="G54" s="6" t="n"/>
+      <c r="F54" s="7" t="n"/>
+      <c r="G54" s="8" t="n"/>
       <c r="S54" t="inlineStr">
         <is>
           <t>SLIM JIM</t>
@@ -1793,10 +1799,10 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" t="n">
+      <c r="A55" s="5" t="n">
         <v>147</v>
       </c>
-      <c r="B55" t="inlineStr">
+      <c r="B55" s="6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -1806,14 +1812,14 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F55" s="5" t="n"/>
-      <c r="G55" s="6" t="n"/>
+      <c r="F55" s="7" t="n"/>
+      <c r="G55" s="8" t="n"/>
     </row>
     <row r="56">
-      <c r="A56" t="n">
+      <c r="A56" s="5" t="n">
         <v>148</v>
       </c>
-      <c r="B56" t="inlineStr">
+      <c r="B56" s="6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -1823,14 +1829,14 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F56" s="5" t="n"/>
-      <c r="G56" s="6" t="n"/>
+      <c r="F56" s="7" t="n"/>
+      <c r="G56" s="8" t="n"/>
     </row>
     <row r="57">
-      <c r="A57" t="n">
+      <c r="A57" s="5" t="n">
         <v>149</v>
       </c>
-      <c r="B57" t="inlineStr">
+      <c r="B57" s="6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -1840,14 +1846,14 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F57" s="5" t="n"/>
-      <c r="G57" s="6" t="n"/>
+      <c r="F57" s="7" t="n"/>
+      <c r="G57" s="8" t="n"/>
     </row>
     <row r="58">
-      <c r="A58" t="n">
+      <c r="A58" s="5" t="n">
         <v>150</v>
       </c>
-      <c r="B58" t="inlineStr">
+      <c r="B58" s="6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -1857,8 +1863,8 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F58" s="5" t="n"/>
-      <c r="G58" s="6" t="n"/>
+      <c r="F58" s="7" t="n"/>
+      <c r="G58" s="8" t="n"/>
     </row>
     <row r="59">
       <c r="A59" s="3" t="inlineStr">
@@ -1886,12 +1892,12 @@
       <c r="S59" s="4" t="n"/>
     </row>
     <row r="60">
-      <c r="A60" t="inlineStr">
+      <c r="A60" s="5" t="inlineStr">
         <is>
           <t>151A</t>
         </is>
       </c>
-      <c r="B60" t="n">
+      <c r="B60" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C60" t="inlineStr">
@@ -1905,10 +1911,10 @@
       <c r="E60" t="n">
         <v>1</v>
       </c>
-      <c r="F60" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="G60" s="6">
+      <c r="F60" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="G60" s="8">
         <f>IF(E60&gt;1,(1.732*D60*F60)/1000,(D60*F60)/1000)</f>
         <v/>
       </c>
@@ -1919,12 +1925,12 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" t="inlineStr">
+      <c r="A61" s="5" t="inlineStr">
         <is>
           <t>151B</t>
         </is>
       </c>
-      <c r="B61" t="n">
+      <c r="B61" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C61" t="inlineStr">
@@ -1938,10 +1944,10 @@
       <c r="E61" t="n">
         <v>1</v>
       </c>
-      <c r="F61" s="5" t="n">
+      <c r="F61" s="7" t="n">
         <v>16</v>
       </c>
-      <c r="G61" s="6">
+      <c r="G61" s="8">
         <f>IF(E61&gt;1,(1.732*D61*F61)/1000,(D61*F61)/1000)</f>
         <v/>
       </c>
@@ -1952,10 +1958,10 @@
       </c>
     </row>
     <row r="62">
-      <c r="A62" t="n">
+      <c r="A62" s="5" t="n">
         <v>152</v>
       </c>
-      <c r="B62" t="inlineStr">
+      <c r="B62" s="6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -1965,14 +1971,14 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F62" s="5" t="n"/>
-      <c r="G62" s="6" t="n"/>
+      <c r="F62" s="7" t="n"/>
+      <c r="G62" s="8" t="n"/>
     </row>
     <row r="63">
-      <c r="A63" t="n">
+      <c r="A63" s="5" t="n">
         <v>153</v>
       </c>
-      <c r="B63" t="inlineStr">
+      <c r="B63" s="6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -1982,14 +1988,14 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F63" s="5" t="n"/>
-      <c r="G63" s="6" t="n"/>
+      <c r="F63" s="7" t="n"/>
+      <c r="G63" s="8" t="n"/>
     </row>
     <row r="64">
-      <c r="A64" t="n">
+      <c r="A64" s="5" t="n">
         <v>154</v>
       </c>
-      <c r="B64" t="n">
+      <c r="B64" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C64" t="inlineStr">
@@ -2003,10 +2009,10 @@
       <c r="E64" t="n">
         <v>1</v>
       </c>
-      <c r="F64" s="5" t="n">
+      <c r="F64" s="7" t="n">
         <v>8</v>
       </c>
-      <c r="G64" s="6">
+      <c r="G64" s="8">
         <f>IF(E64&gt;1,(1.732*D64*F64)/1000,(D64*F64)/1000)</f>
         <v/>
       </c>
@@ -2022,10 +2028,10 @@
       </c>
     </row>
     <row r="65">
-      <c r="A65" t="n">
+      <c r="A65" s="5" t="n">
         <v>155</v>
       </c>
-      <c r="B65" t="inlineStr">
+      <c r="B65" s="6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -2035,14 +2041,14 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F65" s="5" t="n"/>
-      <c r="G65" s="6" t="n"/>
+      <c r="F65" s="7" t="n"/>
+      <c r="G65" s="8" t="n"/>
     </row>
     <row r="66">
-      <c r="A66" t="n">
+      <c r="A66" s="5" t="n">
         <v>156</v>
       </c>
-      <c r="B66" t="n">
+      <c r="B66" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C66" t="inlineStr">
@@ -2056,19 +2062,19 @@
       <c r="E66" t="n">
         <v>1</v>
       </c>
-      <c r="F66" s="5" t="n">
+      <c r="F66" s="7" t="n">
         <v>0.4</v>
       </c>
-      <c r="G66" s="6">
+      <c r="G66" s="8">
         <f>IF(E66&gt;1,(1.732*D66*F66)/1000,(D66*F66)/1000)</f>
         <v/>
       </c>
     </row>
     <row r="67">
-      <c r="A67" t="n">
+      <c r="A67" s="5" t="n">
         <v>157</v>
       </c>
-      <c r="B67" t="n">
+      <c r="B67" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C67" t="inlineStr">
@@ -2082,10 +2088,10 @@
       <c r="E67" t="n">
         <v>1</v>
       </c>
-      <c r="F67" s="5" t="n">
+      <c r="F67" s="7" t="n">
         <v>20</v>
       </c>
-      <c r="G67" s="6">
+      <c r="G67" s="8">
         <f>IF(E67&gt;1,(1.732*D67*F67)/1000,(D67*F67)/1000)</f>
         <v/>
       </c>
@@ -2114,10 +2120,10 @@
       </c>
     </row>
     <row r="68">
-      <c r="A68" t="n">
+      <c r="A68" s="5" t="n">
         <v>158</v>
       </c>
-      <c r="B68" t="n">
+      <c r="B68" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C68" t="inlineStr">
@@ -2125,8 +2131,8 @@
           <t>WORK TOP</t>
         </is>
       </c>
-      <c r="F68" s="5" t="n"/>
-      <c r="G68" s="6" t="n"/>
+      <c r="F68" s="7" t="n"/>
+      <c r="G68" s="8" t="n"/>
       <c r="S68" t="inlineStr">
         <is>
           <t>WITH CABINET BASE MOBILE</t>
@@ -2134,10 +2140,10 @@
       </c>
     </row>
     <row r="69">
-      <c r="A69" t="n">
+      <c r="A69" s="5" t="n">
         <v>159</v>
       </c>
-      <c r="B69" t="inlineStr">
+      <c r="B69" s="6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -2147,14 +2153,14 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F69" s="5" t="n"/>
-      <c r="G69" s="6" t="n"/>
+      <c r="F69" s="7" t="n"/>
+      <c r="G69" s="8" t="n"/>
     </row>
     <row r="70">
-      <c r="A70" t="n">
+      <c r="A70" s="5" t="n">
         <v>160</v>
       </c>
-      <c r="B70" t="inlineStr">
+      <c r="B70" s="6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -2164,14 +2170,14 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F70" s="5" t="n"/>
-      <c r="G70" s="6" t="n"/>
+      <c r="F70" s="7" t="n"/>
+      <c r="G70" s="8" t="n"/>
     </row>
     <row r="71">
-      <c r="A71" t="n">
+      <c r="A71" s="5" t="n">
         <v>161</v>
       </c>
-      <c r="B71" t="n">
+      <c r="B71" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C71" t="inlineStr">
@@ -2185,19 +2191,19 @@
       <c r="E71" t="n">
         <v>3</v>
       </c>
-      <c r="F71" s="5" t="n">
+      <c r="F71" s="7" t="n">
         <v>20.8</v>
       </c>
-      <c r="G71" s="6">
+      <c r="G71" s="8">
         <f>IF(E71&gt;1,(1.732*D71*F71)/1000,(D71*F71)/1000)</f>
         <v/>
       </c>
     </row>
     <row r="72">
-      <c r="A72" t="n">
+      <c r="A72" s="5" t="n">
         <v>162</v>
       </c>
-      <c r="B72" t="n">
+      <c r="B72" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C72" t="inlineStr">
@@ -2211,10 +2217,10 @@
       <c r="E72" t="n">
         <v>1</v>
       </c>
-      <c r="F72" s="5" t="n">
+      <c r="F72" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="G72" s="6">
+      <c r="G72" s="8">
         <f>IF(E72&gt;1,(1.732*D72*F72)/1000,(D72*F72)/1000)</f>
         <v/>
       </c>
@@ -2223,10 +2229,10 @@
       </c>
     </row>
     <row r="73">
-      <c r="A73" t="n">
+      <c r="A73" s="5" t="n">
         <v>163</v>
       </c>
-      <c r="B73" t="n">
+      <c r="B73" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C73" t="inlineStr">
@@ -2234,17 +2240,17 @@
           <t>MODULAR CHARBROILER</t>
         </is>
       </c>
-      <c r="F73" s="5" t="n"/>
-      <c r="G73" s="6" t="n"/>
+      <c r="F73" s="7" t="n"/>
+      <c r="G73" s="8" t="n"/>
       <c r="M73" t="n">
         <v>120000</v>
       </c>
     </row>
     <row r="74">
-      <c r="A74" t="n">
+      <c r="A74" s="5" t="n">
         <v>164</v>
       </c>
-      <c r="B74" t="n">
+      <c r="B74" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C74" t="inlineStr">
@@ -2258,10 +2264,10 @@
       <c r="E74" t="n">
         <v>1</v>
       </c>
-      <c r="F74" s="5" t="n">
+      <c r="F74" s="7" t="n">
         <v>8.5</v>
       </c>
-      <c r="G74" s="6">
+      <c r="G74" s="8">
         <f>IF(E74&gt;1,(1.732*D74*F74)/1000,(D74*F74)/1000)</f>
         <v/>
       </c>
@@ -2272,10 +2278,10 @@
       </c>
     </row>
     <row r="75">
-      <c r="A75" t="n">
+      <c r="A75" s="5" t="n">
         <v>165</v>
       </c>
-      <c r="B75" t="inlineStr">
+      <c r="B75" s="6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -2285,14 +2291,14 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F75" s="5" t="n"/>
-      <c r="G75" s="6" t="n"/>
+      <c r="F75" s="7" t="n"/>
+      <c r="G75" s="8" t="n"/>
     </row>
     <row r="76">
-      <c r="A76" t="n">
+      <c r="A76" s="5" t="n">
         <v>166</v>
       </c>
-      <c r="B76" t="n">
+      <c r="B76" s="6" t="n">
         <v>2</v>
       </c>
       <c r="C76" t="inlineStr">
@@ -2300,8 +2306,8 @@
           <t>SALAMANDER</t>
         </is>
       </c>
-      <c r="F76" s="5" t="n"/>
-      <c r="G76" s="6" t="n"/>
+      <c r="F76" s="7" t="n"/>
+      <c r="G76" s="8" t="n"/>
       <c r="M76" t="n">
         <v>20000</v>
       </c>
@@ -2312,10 +2318,10 @@
       </c>
     </row>
     <row r="77">
-      <c r="A77" t="n">
+      <c r="A77" s="5" t="n">
         <v>167</v>
       </c>
-      <c r="B77" t="n">
+      <c r="B77" s="6" t="n">
         <v>2</v>
       </c>
       <c r="C77" t="inlineStr">
@@ -2323,8 +2329,8 @@
           <t>6 BURNER RANGETOP</t>
         </is>
       </c>
-      <c r="F77" s="5" t="n"/>
-      <c r="G77" s="6" t="n"/>
+      <c r="F77" s="7" t="n"/>
+      <c r="G77" s="8" t="n"/>
       <c r="M77" t="n">
         <v>210000</v>
       </c>
@@ -2335,10 +2341,10 @@
       </c>
     </row>
     <row r="78">
-      <c r="A78" t="n">
+      <c r="A78" s="5" t="n">
         <v>168</v>
       </c>
-      <c r="B78" t="n">
+      <c r="B78" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C78" t="inlineStr">
@@ -2346,8 +2352,8 @@
           <t>FILL FAUCET</t>
         </is>
       </c>
-      <c r="F78" s="5" t="n"/>
-      <c r="G78" s="6" t="n"/>
+      <c r="F78" s="7" t="n"/>
+      <c r="G78" s="8" t="n"/>
       <c r="H78" t="inlineStr">
         <is>
           <t>3/4"</t>
@@ -2363,10 +2369,10 @@
       </c>
     </row>
     <row r="79">
-      <c r="A79" t="n">
+      <c r="A79" s="5" t="n">
         <v>169</v>
       </c>
-      <c r="B79" t="n">
+      <c r="B79" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C79" t="inlineStr">
@@ -2380,10 +2386,10 @@
       <c r="E79" t="n">
         <v>1</v>
       </c>
-      <c r="F79" s="5" t="n">
+      <c r="F79" s="7" t="n">
         <v>11</v>
       </c>
-      <c r="G79" s="6">
+      <c r="G79" s="8">
         <f>IF(E79&gt;1,(1.732*D79*F79)/1000,(D79*F79)/1000)</f>
         <v/>
       </c>
@@ -2394,10 +2400,10 @@
       </c>
     </row>
     <row r="80">
-      <c r="A80" t="n">
+      <c r="A80" s="5" t="n">
         <v>170</v>
       </c>
-      <c r="B80" t="inlineStr">
+      <c r="B80" s="6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -2407,14 +2413,14 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F80" s="5" t="n"/>
-      <c r="G80" s="6" t="n"/>
+      <c r="F80" s="7" t="n"/>
+      <c r="G80" s="8" t="n"/>
     </row>
     <row r="81">
-      <c r="A81" t="n">
+      <c r="A81" s="5" t="n">
         <v>171</v>
       </c>
-      <c r="B81" t="n">
+      <c r="B81" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C81" t="inlineStr">
@@ -2422,8 +2428,8 @@
           <t>PASTA COOKER</t>
         </is>
       </c>
-      <c r="F81" s="5" t="n"/>
-      <c r="G81" s="6" t="n"/>
+      <c r="F81" s="7" t="n"/>
+      <c r="G81" s="8" t="n"/>
       <c r="H81" t="inlineStr">
         <is>
           <t>1/2"</t>
@@ -2444,10 +2450,10 @@
       </c>
     </row>
     <row r="82">
-      <c r="A82" t="n">
+      <c r="A82" s="5" t="n">
         <v>172</v>
       </c>
-      <c r="B82" t="n">
+      <c r="B82" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C82" t="inlineStr">
@@ -2455,8 +2461,8 @@
           <t>WORK TOP</t>
         </is>
       </c>
-      <c r="F82" s="5" t="n"/>
-      <c r="G82" s="6" t="n"/>
+      <c r="F82" s="7" t="n"/>
+      <c r="G82" s="8" t="n"/>
       <c r="S82" t="inlineStr">
         <is>
           <t>WITH CABINET BASE MOBILE</t>
@@ -2464,10 +2470,10 @@
       </c>
     </row>
     <row r="83">
-      <c r="A83" t="n">
+      <c r="A83" s="5" t="n">
         <v>173</v>
       </c>
-      <c r="B83" t="n">
+      <c r="B83" s="6" t="n">
         <v>2</v>
       </c>
       <c r="C83" t="inlineStr">
@@ -2475,8 +2481,8 @@
           <t>FRYER</t>
         </is>
       </c>
-      <c r="F83" s="5" t="n"/>
-      <c r="G83" s="6" t="n"/>
+      <c r="F83" s="7" t="n"/>
+      <c r="G83" s="8" t="n"/>
       <c r="M83" t="n">
         <v>100000</v>
       </c>
@@ -2487,10 +2493,10 @@
       </c>
     </row>
     <row r="84">
-      <c r="A84" t="n">
+      <c r="A84" s="5" t="n">
         <v>174</v>
       </c>
-      <c r="B84" t="n">
+      <c r="B84" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C84" t="inlineStr">
@@ -2504,10 +2510,10 @@
       <c r="E84" t="n">
         <v>1</v>
       </c>
-      <c r="F84" s="5" t="n">
+      <c r="F84" s="7" t="n">
         <v>20</v>
       </c>
-      <c r="G84" s="6">
+      <c r="G84" s="8">
         <f>IF(E84&gt;1,(1.732*D84*F84)/1000,(D84*F84)/1000)</f>
         <v/>
       </c>
@@ -2518,10 +2524,10 @@
       </c>
     </row>
     <row r="85">
-      <c r="A85" t="n">
+      <c r="A85" s="5" t="n">
         <v>175</v>
       </c>
-      <c r="B85" t="inlineStr">
+      <c r="B85" s="6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -2531,14 +2537,14 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F85" s="5" t="n"/>
-      <c r="G85" s="6" t="n"/>
+      <c r="F85" s="7" t="n"/>
+      <c r="G85" s="8" t="n"/>
     </row>
     <row r="86">
-      <c r="A86" t="n">
+      <c r="A86" s="5" t="n">
         <v>176</v>
       </c>
-      <c r="B86" t="n">
+      <c r="B86" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C86" t="inlineStr">
@@ -2546,8 +2552,8 @@
           <t>DOUBLE WALL SHELF</t>
         </is>
       </c>
-      <c r="F86" s="5" t="n"/>
-      <c r="G86" s="6" t="n"/>
+      <c r="F86" s="7" t="n"/>
+      <c r="G86" s="8" t="n"/>
       <c r="S86" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
@@ -2555,10 +2561,10 @@
       </c>
     </row>
     <row r="87">
-      <c r="A87" t="n">
+      <c r="A87" s="5" t="n">
         <v>177</v>
       </c>
-      <c r="B87" t="n">
+      <c r="B87" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C87" t="inlineStr">
@@ -2572,10 +2578,10 @@
       <c r="E87" t="n">
         <v>1</v>
       </c>
-      <c r="F87" s="5" t="n">
+      <c r="F87" s="7" t="n">
         <v>20</v>
       </c>
-      <c r="G87" s="6">
+      <c r="G87" s="8">
         <f>IF(E87&gt;1,(1.732*D87*F87)/1000,(D87*F87)/1000)</f>
         <v/>
       </c>
@@ -2586,10 +2592,10 @@
       </c>
     </row>
     <row r="88">
-      <c r="A88" t="n">
+      <c r="A88" s="5" t="n">
         <v>178</v>
       </c>
-      <c r="B88" t="n">
+      <c r="B88" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C88" t="inlineStr">
@@ -2603,10 +2609,10 @@
       <c r="E88" t="n">
         <v>1</v>
       </c>
-      <c r="F88" s="5" t="n">
+      <c r="F88" s="7" t="n">
         <v>20</v>
       </c>
-      <c r="G88" s="6">
+      <c r="G88" s="8">
         <f>IF(E88&gt;1,(1.732*D88*F88)/1000,(D88*F88)/1000)</f>
         <v/>
       </c>
@@ -2623,10 +2629,10 @@
       </c>
     </row>
     <row r="89">
-      <c r="A89" t="n">
+      <c r="A89" s="5" t="n">
         <v>179</v>
       </c>
-      <c r="B89" t="inlineStr">
+      <c r="B89" s="6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -2636,14 +2642,14 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F89" s="5" t="n"/>
-      <c r="G89" s="6" t="n"/>
+      <c r="F89" s="7" t="n"/>
+      <c r="G89" s="8" t="n"/>
     </row>
     <row r="90">
-      <c r="A90" t="n">
+      <c r="A90" s="5" t="n">
         <v>180</v>
       </c>
-      <c r="B90" t="inlineStr">
+      <c r="B90" s="6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -2653,14 +2659,14 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F90" s="5" t="n"/>
-      <c r="G90" s="6" t="n"/>
+      <c r="F90" s="7" t="n"/>
+      <c r="G90" s="8" t="n"/>
     </row>
     <row r="91">
-      <c r="A91" t="n">
+      <c r="A91" s="5" t="n">
         <v>181</v>
       </c>
-      <c r="B91" t="n">
+      <c r="B91" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C91" t="inlineStr">
@@ -2674,10 +2680,10 @@
       <c r="E91" t="n">
         <v>1</v>
       </c>
-      <c r="F91" s="5" t="n">
+      <c r="F91" s="7" t="n">
         <v>80</v>
       </c>
-      <c r="G91" s="6">
+      <c r="G91" s="8">
         <f>IF(E91&gt;1,(1.732*D91*F91)/1000,(D91*F91)/1000)</f>
         <v/>
       </c>
@@ -2706,10 +2712,10 @@
       </c>
     </row>
     <row r="92">
-      <c r="A92" t="n">
+      <c r="A92" s="5" t="n">
         <v>182</v>
       </c>
-      <c r="B92" t="n">
+      <c r="B92" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C92" t="inlineStr">
@@ -2717,8 +2723,8 @@
           <t>DROP-IN HAND SINK</t>
         </is>
       </c>
-      <c r="F92" s="5" t="n"/>
-      <c r="G92" s="6" t="n"/>
+      <c r="F92" s="7" t="n"/>
+      <c r="G92" s="8" t="n"/>
       <c r="H92" t="inlineStr">
         <is>
           <t>1/2"</t>
@@ -2744,10 +2750,10 @@
       </c>
     </row>
     <row r="93">
-      <c r="A93" t="n">
+      <c r="A93" s="5" t="n">
         <v>183</v>
       </c>
-      <c r="B93" t="n">
+      <c r="B93" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C93" t="inlineStr">
@@ -2755,8 +2761,8 @@
           <t>TRASH RECEPTACLE</t>
         </is>
       </c>
-      <c r="F93" s="5" t="n"/>
-      <c r="G93" s="6" t="n"/>
+      <c r="F93" s="7" t="n"/>
+      <c r="G93" s="8" t="n"/>
       <c r="S93" t="inlineStr">
         <is>
           <t>SLIM JIM</t>
@@ -2764,10 +2770,10 @@
       </c>
     </row>
     <row r="94">
-      <c r="A94" t="n">
+      <c r="A94" s="5" t="n">
         <v>184</v>
       </c>
-      <c r="B94" t="n">
+      <c r="B94" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C94" t="inlineStr">
@@ -2775,8 +2781,8 @@
           <t>TRASH CHUTE</t>
         </is>
       </c>
-      <c r="F94" s="5" t="n"/>
-      <c r="G94" s="6" t="n"/>
+      <c r="F94" s="7" t="n"/>
+      <c r="G94" s="8" t="n"/>
       <c r="S94" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION PART OF ITEM #181</t>
@@ -2784,10 +2790,10 @@
       </c>
     </row>
     <row r="95">
-      <c r="A95" t="n">
+      <c r="A95" s="5" t="n">
         <v>185</v>
       </c>
-      <c r="B95" t="inlineStr">
+      <c r="B95" s="6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -2797,14 +2803,14 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F95" s="5" t="n"/>
-      <c r="G95" s="6" t="n"/>
+      <c r="F95" s="7" t="n"/>
+      <c r="G95" s="8" t="n"/>
     </row>
     <row r="96">
-      <c r="A96" t="n">
+      <c r="A96" s="5" t="n">
         <v>186</v>
       </c>
-      <c r="B96" t="n">
+      <c r="B96" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C96" t="inlineStr">
@@ -2818,10 +2824,10 @@
       <c r="E96" t="n">
         <v>1</v>
       </c>
-      <c r="F96" s="5" t="n">
+      <c r="F96" s="7" t="n">
         <v>8</v>
       </c>
-      <c r="G96" s="6">
+      <c r="G96" s="8">
         <f>IF(E96&gt;1,(1.732*D96*F96)/1000,(D96*F96)/1000)</f>
         <v/>
       </c>
@@ -2837,10 +2843,10 @@
       </c>
     </row>
     <row r="97">
-      <c r="A97" t="n">
+      <c r="A97" s="5" t="n">
         <v>187</v>
       </c>
-      <c r="B97" t="n">
+      <c r="B97" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C97" t="inlineStr">
@@ -2854,10 +2860,10 @@
       <c r="E97" t="n">
         <v>1</v>
       </c>
-      <c r="F97" s="5" t="n">
+      <c r="F97" s="7" t="n">
         <v>8</v>
       </c>
-      <c r="G97" s="6">
+      <c r="G97" s="8">
         <f>IF(E97&gt;1,(1.732*D97*F97)/1000,(D97*F97)/1000)</f>
         <v/>
       </c>
@@ -2873,10 +2879,10 @@
       </c>
     </row>
     <row r="98">
-      <c r="A98" t="n">
+      <c r="A98" s="5" t="n">
         <v>188</v>
       </c>
-      <c r="B98" t="n">
+      <c r="B98" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C98" t="inlineStr">
@@ -2890,10 +2896,10 @@
       <c r="E98" t="n">
         <v>1</v>
       </c>
-      <c r="F98" s="5" t="n">
+      <c r="F98" s="7" t="n">
         <v>8</v>
       </c>
-      <c r="G98" s="6">
+      <c r="G98" s="8">
         <f>IF(E98&gt;1,(1.732*D98*F98)/1000,(D98*F98)/1000)</f>
         <v/>
       </c>
@@ -2909,10 +2915,10 @@
       </c>
     </row>
     <row r="99">
-      <c r="A99" t="n">
+      <c r="A99" s="5" t="n">
         <v>189</v>
       </c>
-      <c r="B99" t="inlineStr">
+      <c r="B99" s="6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -2922,14 +2928,14 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F99" s="5" t="n"/>
-      <c r="G99" s="6" t="n"/>
+      <c r="F99" s="7" t="n"/>
+      <c r="G99" s="8" t="n"/>
     </row>
     <row r="100">
-      <c r="A100" t="n">
+      <c r="A100" s="5" t="n">
         <v>190</v>
       </c>
-      <c r="B100" t="inlineStr">
+      <c r="B100" s="6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -2939,14 +2945,14 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F100" s="5" t="n"/>
-      <c r="G100" s="6" t="n"/>
+      <c r="F100" s="7" t="n"/>
+      <c r="G100" s="8" t="n"/>
     </row>
     <row r="101">
-      <c r="A101" t="n">
+      <c r="A101" s="5" t="n">
         <v>191</v>
       </c>
-      <c r="B101" t="n">
+      <c r="B101" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C101" t="inlineStr">
@@ -2960,10 +2966,10 @@
       <c r="E101" t="n">
         <v>1</v>
       </c>
-      <c r="F101" s="5" t="n">
+      <c r="F101" s="7" t="n">
         <v>8</v>
       </c>
-      <c r="G101" s="6">
+      <c r="G101" s="8">
         <f>IF(E101&gt;1,(1.732*D101*F101)/1000,(D101*F101)/1000)</f>
         <v/>
       </c>
@@ -2979,10 +2985,10 @@
       </c>
     </row>
     <row r="102">
-      <c r="A102" t="n">
+      <c r="A102" s="5" t="n">
         <v>192</v>
       </c>
-      <c r="B102" t="n">
+      <c r="B102" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C102" t="inlineStr">
@@ -2990,8 +2996,8 @@
           <t>TRASH RECEPTACLE</t>
         </is>
       </c>
-      <c r="F102" s="5" t="n"/>
-      <c r="G102" s="6" t="n"/>
+      <c r="F102" s="7" t="n"/>
+      <c r="G102" s="8" t="n"/>
       <c r="S102" t="inlineStr">
         <is>
           <t>SLIM JIM</t>
@@ -2999,10 +3005,10 @@
       </c>
     </row>
     <row r="103">
-      <c r="A103" t="n">
+      <c r="A103" s="5" t="n">
         <v>193</v>
       </c>
-      <c r="B103" t="n">
+      <c r="B103" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C103" t="inlineStr">
@@ -3010,8 +3016,8 @@
           <t>TRASH CHUTE</t>
         </is>
       </c>
-      <c r="F103" s="5" t="n"/>
-      <c r="G103" s="6" t="n"/>
+      <c r="F103" s="7" t="n"/>
+      <c r="G103" s="8" t="n"/>
       <c r="S103" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION PART OF ITEM #181</t>
@@ -3019,10 +3025,10 @@
       </c>
     </row>
     <row r="104">
-      <c r="A104" t="n">
+      <c r="A104" s="5" t="n">
         <v>194</v>
       </c>
-      <c r="B104" t="n">
+      <c r="B104" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C104" t="inlineStr">
@@ -3030,8 +3036,8 @@
           <t>DROP-IN HAND SINK</t>
         </is>
       </c>
-      <c r="F104" s="5" t="n"/>
-      <c r="G104" s="6" t="n"/>
+      <c r="F104" s="7" t="n"/>
+      <c r="G104" s="8" t="n"/>
       <c r="H104" t="inlineStr">
         <is>
           <t>1/2"</t>
@@ -3057,10 +3063,10 @@
       </c>
     </row>
     <row r="105">
-      <c r="A105" t="n">
+      <c r="A105" s="5" t="n">
         <v>195</v>
       </c>
-      <c r="B105" t="inlineStr">
+      <c r="B105" s="6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -3070,14 +3076,14 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F105" s="5" t="n"/>
-      <c r="G105" s="6" t="n"/>
+      <c r="F105" s="7" t="n"/>
+      <c r="G105" s="8" t="n"/>
     </row>
     <row r="106">
-      <c r="A106" t="n">
+      <c r="A106" s="5" t="n">
         <v>196</v>
       </c>
-      <c r="B106" t="n">
+      <c r="B106" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C106" t="inlineStr">
@@ -3085,8 +3091,8 @@
           <t>COLD PICK UP TABLE</t>
         </is>
       </c>
-      <c r="F106" s="5" t="n"/>
-      <c r="G106" s="6" t="n"/>
+      <c r="F106" s="7" t="n"/>
+      <c r="G106" s="8" t="n"/>
       <c r="S106" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
@@ -3094,10 +3100,10 @@
       </c>
     </row>
     <row r="107">
-      <c r="A107" t="n">
+      <c r="A107" s="5" t="n">
         <v>197</v>
       </c>
-      <c r="B107" t="n">
+      <c r="B107" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C107" t="inlineStr">
@@ -3105,8 +3111,8 @@
           <t>PASS THRU SHELF</t>
         </is>
       </c>
-      <c r="F107" s="5" t="n"/>
-      <c r="G107" s="6" t="n"/>
+      <c r="F107" s="7" t="n"/>
+      <c r="G107" s="8" t="n"/>
       <c r="S107" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
@@ -3114,10 +3120,10 @@
       </c>
     </row>
     <row r="108">
-      <c r="A108" t="n">
+      <c r="A108" s="5" t="n">
         <v>198</v>
       </c>
-      <c r="B108" t="n">
+      <c r="B108" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C108" t="inlineStr">
@@ -3125,8 +3131,8 @@
           <t>HOT PICK UP TABLE</t>
         </is>
       </c>
-      <c r="F108" s="5" t="n"/>
-      <c r="G108" s="6" t="n"/>
+      <c r="F108" s="7" t="n"/>
+      <c r="G108" s="8" t="n"/>
       <c r="S108" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
@@ -3134,10 +3140,10 @@
       </c>
     </row>
     <row r="109">
-      <c r="A109" t="n">
+      <c r="A109" s="5" t="n">
         <v>199</v>
       </c>
-      <c r="B109" t="inlineStr">
+      <c r="B109" s="6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -3147,14 +3153,14 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F109" s="5" t="n"/>
-      <c r="G109" s="6" t="n"/>
+      <c r="F109" s="7" t="n"/>
+      <c r="G109" s="8" t="n"/>
     </row>
     <row r="110">
-      <c r="A110" t="n">
+      <c r="A110" s="5" t="n">
         <v>200</v>
       </c>
-      <c r="B110" t="inlineStr">
+      <c r="B110" s="6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -3164,14 +3170,14 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F110" s="5" t="n"/>
-      <c r="G110" s="6" t="n"/>
+      <c r="F110" s="7" t="n"/>
+      <c r="G110" s="8" t="n"/>
     </row>
     <row r="111">
-      <c r="A111" t="n">
+      <c r="A111" s="5" t="n">
         <v>201</v>
       </c>
-      <c r="B111" t="n">
+      <c r="B111" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C111" t="inlineStr">
@@ -3185,19 +3191,19 @@
       <c r="E111" t="n">
         <v>1</v>
       </c>
-      <c r="F111" s="5" t="n">
+      <c r="F111" s="7" t="n">
         <v>7.9</v>
       </c>
-      <c r="G111" s="6">
+      <c r="G111" s="8">
         <f>IF(E111&gt;1,(1.732*D111*F111)/1000,(D111*F111)/1000)</f>
         <v/>
       </c>
     </row>
     <row r="112">
-      <c r="A112" t="n">
+      <c r="A112" s="5" t="n">
         <v>202</v>
       </c>
-      <c r="B112" t="n">
+      <c r="B112" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C112" t="inlineStr">
@@ -3205,8 +3211,8 @@
           <t>PASS THRU SHELF</t>
         </is>
       </c>
-      <c r="F112" s="5" t="n"/>
-      <c r="G112" s="6" t="n"/>
+      <c r="F112" s="7" t="n"/>
+      <c r="G112" s="8" t="n"/>
       <c r="S112" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
@@ -3214,10 +3220,10 @@
       </c>
     </row>
     <row r="113">
-      <c r="A113" t="n">
+      <c r="A113" s="5" t="n">
         <v>203</v>
       </c>
-      <c r="B113" t="n">
+      <c r="B113" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C113" t="inlineStr">
@@ -3225,8 +3231,8 @@
           <t>PASS THRU SHELF</t>
         </is>
       </c>
-      <c r="F113" s="5" t="n"/>
-      <c r="G113" s="6" t="n"/>
+      <c r="F113" s="7" t="n"/>
+      <c r="G113" s="8" t="n"/>
       <c r="S113" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
@@ -3234,10 +3240,10 @@
       </c>
     </row>
     <row r="114">
-      <c r="A114" t="n">
+      <c r="A114" s="5" t="n">
         <v>204</v>
       </c>
-      <c r="B114" t="n">
+      <c r="B114" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C114" t="inlineStr">
@@ -3251,21 +3257,21 @@
       <c r="E114" t="n">
         <v>1</v>
       </c>
-      <c r="F114" s="5" t="n">
+      <c r="F114" s="7" t="n">
         <v>7.9</v>
       </c>
-      <c r="G114" s="6">
+      <c r="G114" s="8">
         <f>IF(E114&gt;1,(1.732*D114*F114)/1000,(D114*F114)/1000)</f>
         <v/>
       </c>
     </row>
     <row r="115">
-      <c r="A115" t="inlineStr">
+      <c r="A115" s="5" t="inlineStr">
         <is>
           <t>205- 300</t>
         </is>
       </c>
-      <c r="B115" t="inlineStr">
+      <c r="B115" s="6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -3275,8 +3281,8 @@
           <t>SPARE NUMBERS</t>
         </is>
       </c>
-      <c r="F115" s="5" t="n"/>
-      <c r="G115" s="6" t="n"/>
+      <c r="F115" s="7" t="n"/>
+      <c r="G115" s="8" t="n"/>
     </row>
     <row r="116">
       <c r="A116" s="3" t="inlineStr">
@@ -3304,10 +3310,10 @@
       <c r="S116" s="4" t="n"/>
     </row>
     <row r="117">
-      <c r="A117" t="n">
+      <c r="A117" s="5" t="n">
         <v>301</v>
       </c>
-      <c r="B117" t="n">
+      <c r="B117" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C117" t="inlineStr">
@@ -3321,10 +3327,10 @@
       <c r="E117" t="n">
         <v>1</v>
       </c>
-      <c r="F117" s="5" t="n">
+      <c r="F117" s="7" t="n">
         <v>8.1</v>
       </c>
-      <c r="G117" s="6">
+      <c r="G117" s="8">
         <f>IF(E117&gt;1,(1.732*D117*F117)/1000,(D117*F117)/1000)</f>
         <v/>
       </c>
@@ -3335,10 +3341,10 @@
       </c>
     </row>
     <row r="118">
-      <c r="A118" t="n">
+      <c r="A118" s="5" t="n">
         <v>302</v>
       </c>
-      <c r="B118" t="n">
+      <c r="B118" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C118" t="inlineStr">
@@ -3346,8 +3352,8 @@
           <t>MOP SINK CABINET</t>
         </is>
       </c>
-      <c r="F118" s="5" t="n"/>
-      <c r="G118" s="6" t="n"/>
+      <c r="F118" s="7" t="n"/>
+      <c r="G118" s="8" t="n"/>
       <c r="H118" t="inlineStr">
         <is>
           <t>1/2"</t>
@@ -3368,10 +3374,10 @@
       </c>
     </row>
     <row r="119">
-      <c r="A119" t="n">
+      <c r="A119" s="5" t="n">
         <v>303</v>
       </c>
-      <c r="B119" t="n">
+      <c r="B119" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C119" t="inlineStr">
@@ -3379,8 +3385,8 @@
           <t>GLASS POLISH TABLE</t>
         </is>
       </c>
-      <c r="F119" s="5" t="n"/>
-      <c r="G119" s="6" t="n"/>
+      <c r="F119" s="7" t="n"/>
+      <c r="G119" s="8" t="n"/>
       <c r="S119" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
@@ -3388,10 +3394,10 @@
       </c>
     </row>
     <row r="120">
-      <c r="A120" t="n">
+      <c r="A120" s="5" t="n">
         <v>304</v>
       </c>
-      <c r="B120" t="n">
+      <c r="B120" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C120" t="inlineStr">
@@ -3405,10 +3411,10 @@
       <c r="E120" t="n">
         <v>3</v>
       </c>
-      <c r="F120" s="5" t="n">
+      <c r="F120" s="7" t="n">
         <v>32.1</v>
       </c>
-      <c r="G120" s="6">
+      <c r="G120" s="8">
         <f>IF(E120&gt;1,(1.732*D120*F120)/1000,(D120*F120)/1000)</f>
         <v/>
       </c>
@@ -3432,10 +3438,10 @@
       </c>
     </row>
     <row r="121">
-      <c r="A121" t="n">
+      <c r="A121" s="5" t="n">
         <v>305</v>
       </c>
-      <c r="B121" t="inlineStr">
+      <c r="B121" s="6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -3445,14 +3451,14 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F121" s="5" t="n"/>
-      <c r="G121" s="6" t="n"/>
+      <c r="F121" s="7" t="n"/>
+      <c r="G121" s="8" t="n"/>
     </row>
     <row r="122">
-      <c r="A122" t="n">
+      <c r="A122" s="5" t="n">
         <v>306</v>
       </c>
-      <c r="B122" t="n">
+      <c r="B122" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C122" t="inlineStr">
@@ -3460,8 +3466,8 @@
           <t>GLASS RACK SHELF</t>
         </is>
       </c>
-      <c r="F122" s="5" t="n"/>
-      <c r="G122" s="6" t="n"/>
+      <c r="F122" s="7" t="n"/>
+      <c r="G122" s="8" t="n"/>
       <c r="S122" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION WALL MOUNTED</t>
@@ -3469,10 +3475,10 @@
       </c>
     </row>
     <row r="123">
-      <c r="A123" t="n">
+      <c r="A123" s="5" t="n">
         <v>307</v>
       </c>
-      <c r="B123" t="n">
+      <c r="B123" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C123" t="inlineStr">
@@ -3486,10 +3492,10 @@
       <c r="E123" t="n">
         <v>3</v>
       </c>
-      <c r="F123" s="5" t="n">
+      <c r="F123" s="7" t="n">
         <v>32.1</v>
       </c>
-      <c r="G123" s="6">
+      <c r="G123" s="8">
         <f>IF(E123&gt;1,(1.732*D123*F123)/1000,(D123*F123)/1000)</f>
         <v/>
       </c>
@@ -3513,10 +3519,10 @@
       </c>
     </row>
     <row r="124">
-      <c r="A124" t="n">
+      <c r="A124" s="5" t="n">
         <v>308</v>
       </c>
-      <c r="B124" t="n">
+      <c r="B124" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C124" t="inlineStr">
@@ -3524,8 +3530,8 @@
           <t>HOSE REEL CONTROL CABINET</t>
         </is>
       </c>
-      <c r="F124" s="5" t="n"/>
-      <c r="G124" s="6" t="n"/>
+      <c r="F124" s="7" t="n"/>
+      <c r="G124" s="8" t="n"/>
       <c r="H124" t="inlineStr">
         <is>
           <t>1/2"</t>
@@ -3546,10 +3552,10 @@
       </c>
     </row>
     <row r="125">
-      <c r="A125" t="n">
+      <c r="A125" s="5" t="n">
         <v>309</v>
       </c>
-      <c r="B125" t="inlineStr">
+      <c r="B125" s="6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -3559,14 +3565,14 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F125" s="5" t="n"/>
-      <c r="G125" s="6" t="n"/>
+      <c r="F125" s="7" t="n"/>
+      <c r="G125" s="8" t="n"/>
     </row>
     <row r="126">
-      <c r="A126" t="n">
+      <c r="A126" s="5" t="n">
         <v>310</v>
       </c>
-      <c r="B126" t="inlineStr">
+      <c r="B126" s="6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -3576,14 +3582,14 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F126" s="5" t="n"/>
-      <c r="G126" s="6" t="n"/>
+      <c r="F126" s="7" t="n"/>
+      <c r="G126" s="8" t="n"/>
     </row>
     <row r="127">
-      <c r="A127" t="n">
+      <c r="A127" s="5" t="n">
         <v>311</v>
       </c>
-      <c r="B127" t="n">
+      <c r="B127" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C127" t="inlineStr">
@@ -3591,8 +3597,8 @@
           <t>HOSE REEL CONTROL CABINET</t>
         </is>
       </c>
-      <c r="F127" s="5" t="n"/>
-      <c r="G127" s="6" t="n"/>
+      <c r="F127" s="7" t="n"/>
+      <c r="G127" s="8" t="n"/>
       <c r="H127" t="inlineStr">
         <is>
           <t>1/2"</t>
@@ -3613,10 +3619,10 @@
       </c>
     </row>
     <row r="128">
-      <c r="A128" t="n">
+      <c r="A128" s="5" t="n">
         <v>312</v>
       </c>
-      <c r="B128" t="n">
+      <c r="B128" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C128" t="inlineStr">
@@ -3624,8 +3630,8 @@
           <t>TRASH RECEPTACLE</t>
         </is>
       </c>
-      <c r="F128" s="5" t="n"/>
-      <c r="G128" s="6" t="n"/>
+      <c r="F128" s="7" t="n"/>
+      <c r="G128" s="8" t="n"/>
       <c r="S128" t="inlineStr">
         <is>
           <t>WITH LID AND DOLLY</t>
@@ -3633,10 +3639,10 @@
       </c>
     </row>
     <row r="129">
-      <c r="A129" t="n">
+      <c r="A129" s="5" t="n">
         <v>313</v>
       </c>
-      <c r="B129" t="n">
+      <c r="B129" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C129" t="inlineStr">
@@ -3644,8 +3650,8 @@
           <t>FLOOR TROUGH &amp; GRATE</t>
         </is>
       </c>
-      <c r="F129" s="5" t="n"/>
-      <c r="G129" s="6" t="n"/>
+      <c r="F129" s="7" t="n"/>
+      <c r="G129" s="8" t="n"/>
       <c r="L129" t="inlineStr">
         <is>
           <t>2"</t>
@@ -3658,10 +3664,10 @@
       </c>
     </row>
     <row r="130">
-      <c r="A130" t="n">
+      <c r="A130" s="5" t="n">
         <v>314</v>
       </c>
-      <c r="B130" t="n">
+      <c r="B130" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C130" t="inlineStr">
@@ -3669,8 +3675,8 @@
           <t>HOSE REEL</t>
         </is>
       </c>
-      <c r="F130" s="5" t="n"/>
-      <c r="G130" s="6" t="n"/>
+      <c r="F130" s="7" t="n"/>
+      <c r="G130" s="8" t="n"/>
       <c r="S130" t="inlineStr">
         <is>
           <t>CEILING MOUNT</t>
@@ -3678,10 +3684,10 @@
       </c>
     </row>
     <row r="131">
-      <c r="A131" t="n">
+      <c r="A131" s="5" t="n">
         <v>315</v>
       </c>
-      <c r="B131" t="inlineStr">
+      <c r="B131" s="6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -3691,14 +3697,14 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F131" s="5" t="n"/>
-      <c r="G131" s="6" t="n"/>
+      <c r="F131" s="7" t="n"/>
+      <c r="G131" s="8" t="n"/>
     </row>
     <row r="132">
-      <c r="A132" t="n">
+      <c r="A132" s="5" t="n">
         <v>316</v>
       </c>
-      <c r="B132" t="n">
+      <c r="B132" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C132" t="inlineStr">
@@ -3706,8 +3712,8 @@
           <t>POT SHELF</t>
         </is>
       </c>
-      <c r="F132" s="5" t="n"/>
-      <c r="G132" s="6" t="n"/>
+      <c r="F132" s="7" t="n"/>
+      <c r="G132" s="8" t="n"/>
       <c r="S132" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
@@ -3715,10 +3721,10 @@
       </c>
     </row>
     <row r="133">
-      <c r="A133" t="n">
+      <c r="A133" s="5" t="n">
         <v>317</v>
       </c>
-      <c r="B133" t="inlineStr">
+      <c r="B133" s="6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -3728,14 +3734,14 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F133" s="5" t="n"/>
-      <c r="G133" s="6" t="n"/>
+      <c r="F133" s="7" t="n"/>
+      <c r="G133" s="8" t="n"/>
     </row>
     <row r="134">
-      <c r="A134" t="n">
+      <c r="A134" s="5" t="n">
         <v>318</v>
       </c>
-      <c r="B134" t="inlineStr">
+      <c r="B134" s="6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -3745,14 +3751,14 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F134" s="5" t="n"/>
-      <c r="G134" s="6" t="n"/>
+      <c r="F134" s="7" t="n"/>
+      <c r="G134" s="8" t="n"/>
     </row>
     <row r="135">
-      <c r="A135" t="n">
+      <c r="A135" s="5" t="n">
         <v>319</v>
       </c>
-      <c r="B135" t="inlineStr">
+      <c r="B135" s="6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -3762,14 +3768,14 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F135" s="5" t="n"/>
-      <c r="G135" s="6" t="n"/>
+      <c r="F135" s="7" t="n"/>
+      <c r="G135" s="8" t="n"/>
     </row>
     <row r="136">
-      <c r="A136" t="n">
+      <c r="A136" s="5" t="n">
         <v>320</v>
       </c>
-      <c r="B136" t="inlineStr">
+      <c r="B136" s="6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -3779,14 +3785,14 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F136" s="5" t="n"/>
-      <c r="G136" s="6" t="n"/>
+      <c r="F136" s="7" t="n"/>
+      <c r="G136" s="8" t="n"/>
     </row>
     <row r="137">
-      <c r="A137" t="n">
+      <c r="A137" s="5" t="n">
         <v>321</v>
       </c>
-      <c r="B137" t="n">
+      <c r="B137" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C137" t="inlineStr">
@@ -3794,8 +3800,8 @@
           <t>POT SINK</t>
         </is>
       </c>
-      <c r="F137" s="5" t="n"/>
-      <c r="G137" s="6" t="n"/>
+      <c r="F137" s="7" t="n"/>
+      <c r="G137" s="8" t="n"/>
       <c r="H137" t="inlineStr">
         <is>
           <t>(2)3/4"</t>
@@ -3821,10 +3827,10 @@
       </c>
     </row>
     <row r="138">
-      <c r="A138" t="n">
+      <c r="A138" s="5" t="n">
         <v>322</v>
       </c>
-      <c r="B138" t="n">
+      <c r="B138" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C138" t="inlineStr">
@@ -3832,8 +3838,8 @@
           <t>HAND SINK</t>
         </is>
       </c>
-      <c r="F138" s="5" t="n"/>
-      <c r="G138" s="6" t="n"/>
+      <c r="F138" s="7" t="n"/>
+      <c r="G138" s="8" t="n"/>
       <c r="H138" t="inlineStr">
         <is>
           <t>1/2"</t>
@@ -3859,10 +3865,10 @@
       </c>
     </row>
     <row r="139">
-      <c r="A139" t="n">
+      <c r="A139" s="5" t="n">
         <v>323</v>
       </c>
-      <c r="B139" t="n">
+      <c r="B139" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C139" t="inlineStr">
@@ -3870,8 +3876,8 @@
           <t>TRASH RECEPTACLE</t>
         </is>
       </c>
-      <c r="F139" s="5" t="n"/>
-      <c r="G139" s="6" t="n"/>
+      <c r="F139" s="7" t="n"/>
+      <c r="G139" s="8" t="n"/>
       <c r="S139" t="inlineStr">
         <is>
           <t>SLIM JIM</t>
@@ -3879,10 +3885,10 @@
       </c>
     </row>
     <row r="140">
-      <c r="A140" t="n">
+      <c r="A140" s="5" t="n">
         <v>324</v>
       </c>
-      <c r="B140" t="n">
+      <c r="B140" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C140" t="inlineStr">
@@ -3890,8 +3896,8 @@
           <t>CLEAN DISH TABLE</t>
         </is>
       </c>
-      <c r="F140" s="5" t="n"/>
-      <c r="G140" s="6" t="n"/>
+      <c r="F140" s="7" t="n"/>
+      <c r="G140" s="8" t="n"/>
       <c r="S140" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
@@ -3899,10 +3905,10 @@
       </c>
     </row>
     <row r="141">
-      <c r="A141" t="n">
+      <c r="A141" s="5" t="n">
         <v>325</v>
       </c>
-      <c r="B141" t="inlineStr">
+      <c r="B141" s="6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -3912,14 +3918,14 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F141" s="5" t="n"/>
-      <c r="G141" s="6" t="n"/>
+      <c r="F141" s="7" t="n"/>
+      <c r="G141" s="8" t="n"/>
     </row>
     <row r="142">
-      <c r="A142" t="n">
+      <c r="A142" s="5" t="n">
         <v>326</v>
       </c>
-      <c r="B142" t="n">
+      <c r="B142" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C142" t="inlineStr">
@@ -3933,10 +3939,10 @@
       <c r="E142" t="n">
         <v>3</v>
       </c>
-      <c r="F142" s="5" t="n">
+      <c r="F142" s="7" t="n">
         <v>32.1</v>
       </c>
-      <c r="G142" s="6">
+      <c r="G142" s="8">
         <f>IF(E142&gt;1,(1.732*D142*F142)/1000,(D142*F142)/1000)</f>
         <v/>
       </c>
@@ -3960,10 +3966,10 @@
       </c>
     </row>
     <row r="143">
-      <c r="A143" t="n">
+      <c r="A143" s="5" t="n">
         <v>327</v>
       </c>
-      <c r="B143" t="n">
+      <c r="B143" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C143" t="inlineStr">
@@ -3971,8 +3977,8 @@
           <t>GLASS RACK SHELF</t>
         </is>
       </c>
-      <c r="F143" s="5" t="n"/>
-      <c r="G143" s="6" t="n"/>
+      <c r="F143" s="7" t="n"/>
+      <c r="G143" s="8" t="n"/>
       <c r="S143" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION WALL MOUNTED</t>
@@ -3980,10 +3986,10 @@
       </c>
     </row>
     <row r="144">
-      <c r="A144" t="n">
+      <c r="A144" s="5" t="n">
         <v>328</v>
       </c>
-      <c r="B144" t="n">
+      <c r="B144" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C144" t="inlineStr">
@@ -3991,8 +3997,8 @@
           <t>FLOOR TROUGH &amp; GRATE</t>
         </is>
       </c>
-      <c r="F144" s="5" t="n"/>
-      <c r="G144" s="6" t="n"/>
+      <c r="F144" s="7" t="n"/>
+      <c r="G144" s="8" t="n"/>
       <c r="L144" t="inlineStr">
         <is>
           <t>2"</t>
@@ -4005,10 +4011,10 @@
       </c>
     </row>
     <row r="145">
-      <c r="A145" t="n">
+      <c r="A145" s="5" t="n">
         <v>329</v>
       </c>
-      <c r="B145" t="inlineStr">
+      <c r="B145" s="6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -4018,14 +4024,14 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F145" s="5" t="n"/>
-      <c r="G145" s="6" t="n"/>
+      <c r="F145" s="7" t="n"/>
+      <c r="G145" s="8" t="n"/>
     </row>
     <row r="146">
-      <c r="A146" t="n">
+      <c r="A146" s="5" t="n">
         <v>330</v>
       </c>
-      <c r="B146" t="inlineStr">
+      <c r="B146" s="6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -4035,14 +4041,14 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F146" s="5" t="n"/>
-      <c r="G146" s="6" t="n"/>
+      <c r="F146" s="7" t="n"/>
+      <c r="G146" s="8" t="n"/>
     </row>
     <row r="147">
-      <c r="A147" t="n">
+      <c r="A147" s="5" t="n">
         <v>331</v>
       </c>
-      <c r="B147" t="n">
+      <c r="B147" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C147" t="inlineStr">
@@ -4050,8 +4056,8 @@
           <t>HOSE REEL</t>
         </is>
       </c>
-      <c r="F147" s="5" t="n"/>
-      <c r="G147" s="6" t="n"/>
+      <c r="F147" s="7" t="n"/>
+      <c r="G147" s="8" t="n"/>
       <c r="S147" t="inlineStr">
         <is>
           <t>CEILING MOUNT</t>
@@ -4059,10 +4065,10 @@
       </c>
     </row>
     <row r="148">
-      <c r="A148" t="n">
+      <c r="A148" s="5" t="n">
         <v>332</v>
       </c>
-      <c r="B148" t="n">
+      <c r="B148" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C148" t="inlineStr">
@@ -4076,10 +4082,10 @@
       <c r="E148" t="n">
         <v>3</v>
       </c>
-      <c r="F148" s="5" t="n">
+      <c r="F148" s="7" t="n">
         <v>23.6</v>
       </c>
-      <c r="G148" s="6">
+      <c r="G148" s="8">
         <f>IF(E148&gt;1,(1.732*D148*F148)/1000,(D148*F148)/1000)</f>
         <v/>
       </c>
@@ -4111,10 +4117,10 @@
       </c>
     </row>
     <row r="149">
-      <c r="A149" t="n">
+      <c r="A149" s="5" t="n">
         <v>333</v>
       </c>
-      <c r="B149" t="n">
+      <c r="B149" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C149" t="inlineStr">
@@ -4122,8 +4128,8 @@
           <t>TRASH RECEPTACLE</t>
         </is>
       </c>
-      <c r="F149" s="5" t="n"/>
-      <c r="G149" s="6" t="n"/>
+      <c r="F149" s="7" t="n"/>
+      <c r="G149" s="8" t="n"/>
       <c r="S149" t="inlineStr">
         <is>
           <t>WITH LID AND DOLLY</t>
@@ -4131,10 +4137,10 @@
       </c>
     </row>
     <row r="150">
-      <c r="A150" t="n">
+      <c r="A150" s="5" t="n">
         <v>334</v>
       </c>
-      <c r="B150" t="n">
+      <c r="B150" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C150" t="inlineStr">
@@ -4142,8 +4148,8 @@
           <t>SILVER SOAK SINK</t>
         </is>
       </c>
-      <c r="F150" s="5" t="n"/>
-      <c r="G150" s="6" t="n"/>
+      <c r="F150" s="7" t="n"/>
+      <c r="G150" s="8" t="n"/>
       <c r="S150" t="inlineStr">
         <is>
           <t>MOBILE</t>
@@ -4151,10 +4157,10 @@
       </c>
     </row>
     <row r="151">
-      <c r="A151" t="n">
+      <c r="A151" s="5" t="n">
         <v>335</v>
       </c>
-      <c r="B151" t="inlineStr">
+      <c r="B151" s="6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -4164,14 +4170,14 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F151" s="5" t="n"/>
-      <c r="G151" s="6" t="n"/>
+      <c r="F151" s="7" t="n"/>
+      <c r="G151" s="8" t="n"/>
     </row>
     <row r="152">
-      <c r="A152" t="n">
+      <c r="A152" s="5" t="n">
         <v>336</v>
       </c>
-      <c r="B152" t="n">
+      <c r="B152" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C152" t="inlineStr">
@@ -4179,8 +4185,8 @@
           <t>DOUBLE SIDED GLASS RACK SHELF</t>
         </is>
       </c>
-      <c r="F152" s="5" t="n"/>
-      <c r="G152" s="6" t="n"/>
+      <c r="F152" s="7" t="n"/>
+      <c r="G152" s="8" t="n"/>
       <c r="S152" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION PART OF ITEM #341</t>
@@ -4188,10 +4194,10 @@
       </c>
     </row>
     <row r="153">
-      <c r="A153" t="n">
+      <c r="A153" s="5" t="n">
         <v>337</v>
       </c>
-      <c r="B153" t="inlineStr">
+      <c r="B153" s="6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -4201,14 +4207,14 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F153" s="5" t="n"/>
-      <c r="G153" s="6" t="n"/>
+      <c r="F153" s="7" t="n"/>
+      <c r="G153" s="8" t="n"/>
     </row>
     <row r="154">
-      <c r="A154" t="n">
+      <c r="A154" s="5" t="n">
         <v>338</v>
       </c>
-      <c r="B154" t="n">
+      <c r="B154" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C154" t="inlineStr">
@@ -4222,10 +4228,10 @@
       <c r="E154" t="n">
         <v>3</v>
       </c>
-      <c r="F154" s="5" t="n">
+      <c r="F154" s="7" t="n">
         <v>3.2</v>
       </c>
-      <c r="G154" s="6">
+      <c r="G154" s="8">
         <f>IF(E154&gt;1,(1.732*D154*F154)/1000,(D154*F154)/1000)</f>
         <v/>
       </c>
@@ -4254,10 +4260,10 @@
       </c>
     </row>
     <row r="155">
-      <c r="A155" t="n">
+      <c r="A155" s="5" t="n">
         <v>339</v>
       </c>
-      <c r="B155" t="inlineStr">
+      <c r="B155" s="6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -4267,14 +4273,14 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F155" s="5" t="n"/>
-      <c r="G155" s="6" t="n"/>
+      <c r="F155" s="7" t="n"/>
+      <c r="G155" s="8" t="n"/>
     </row>
     <row r="156">
-      <c r="A156" t="n">
+      <c r="A156" s="5" t="n">
         <v>340</v>
       </c>
-      <c r="B156" t="inlineStr">
+      <c r="B156" s="6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -4284,14 +4290,14 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F156" s="5" t="n"/>
-      <c r="G156" s="6" t="n"/>
+      <c r="F156" s="7" t="n"/>
+      <c r="G156" s="8" t="n"/>
     </row>
     <row r="157">
-      <c r="A157" t="n">
+      <c r="A157" s="5" t="n">
         <v>341</v>
       </c>
-      <c r="B157" t="n">
+      <c r="B157" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C157" t="inlineStr">
@@ -4299,8 +4305,8 @@
           <t>SOILED DISH TABLE</t>
         </is>
       </c>
-      <c r="F157" s="5" t="n"/>
-      <c r="G157" s="6" t="n"/>
+      <c r="F157" s="7" t="n"/>
+      <c r="G157" s="8" t="n"/>
       <c r="S157" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION WITH TROUGH AND BRIDGE</t>
@@ -4308,10 +4314,10 @@
       </c>
     </row>
     <row r="158">
-      <c r="A158" t="n">
+      <c r="A158" s="5" t="n">
         <v>342</v>
       </c>
-      <c r="B158" t="n">
+      <c r="B158" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C158" t="inlineStr">
@@ -4319,8 +4325,8 @@
           <t>POT AND PAN SHELVING</t>
         </is>
       </c>
-      <c r="F158" s="5" t="n"/>
-      <c r="G158" s="6" t="n"/>
+      <c r="F158" s="7" t="n"/>
+      <c r="G158" s="8" t="n"/>
       <c r="S158" t="inlineStr">
         <is>
           <t>MOBILE FOUR TIER</t>
@@ -4328,10 +4334,10 @@
       </c>
     </row>
     <row r="159">
-      <c r="A159" t="n">
+      <c r="A159" s="5" t="n">
         <v>343</v>
       </c>
-      <c r="B159" t="n">
+      <c r="B159" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C159" t="inlineStr">
@@ -4339,8 +4345,8 @@
           <t>DISH DROP WINDOW WITH SHELF</t>
         </is>
       </c>
-      <c r="F159" s="5" t="n"/>
-      <c r="G159" s="6" t="n"/>
+      <c r="F159" s="7" t="n"/>
+      <c r="G159" s="8" t="n"/>
       <c r="S159" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
@@ -4348,10 +4354,10 @@
       </c>
     </row>
     <row r="160">
-      <c r="A160" t="n">
+      <c r="A160" s="5" t="n">
         <v>344</v>
       </c>
-      <c r="B160" t="n">
+      <c r="B160" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C160" t="inlineStr">
@@ -4359,8 +4365,8 @@
           <t>SILVERWARE CHUTE</t>
         </is>
       </c>
-      <c r="F160" s="5" t="n"/>
-      <c r="G160" s="6" t="n"/>
+      <c r="F160" s="7" t="n"/>
+      <c r="G160" s="8" t="n"/>
       <c r="S160" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
@@ -4368,12 +4374,12 @@
       </c>
     </row>
     <row r="161">
-      <c r="A161" t="inlineStr">
+      <c r="A161" s="5" t="inlineStr">
         <is>
           <t>345-350</t>
         </is>
       </c>
-      <c r="B161" t="inlineStr">
+      <c r="B161" s="6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -4383,8 +4389,8 @@
           <t>SPARE NUMBERS</t>
         </is>
       </c>
-      <c r="F161" s="5" t="n"/>
-      <c r="G161" s="6" t="n"/>
+      <c r="F161" s="7" t="n"/>
+      <c r="G161" s="8" t="n"/>
     </row>
     <row r="162">
       <c r="A162" s="3" t="inlineStr">
@@ -4412,10 +4418,10 @@
       <c r="S162" s="4" t="n"/>
     </row>
     <row r="163">
-      <c r="A163" t="n">
+      <c r="A163" s="5" t="n">
         <v>351</v>
       </c>
-      <c r="B163" t="n">
+      <c r="B163" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C163" t="inlineStr">
@@ -4429,10 +4435,10 @@
       <c r="E163" t="n">
         <v>1</v>
       </c>
-      <c r="F163" s="5" t="n">
+      <c r="F163" s="7" t="n">
         <v>5</v>
       </c>
-      <c r="G163" s="6">
+      <c r="G163" s="8">
         <f>IF(E163&gt;1,(1.732*D163*F163)/1000,(D163*F163)/1000)</f>
         <v/>
       </c>
@@ -4443,10 +4449,10 @@
       </c>
     </row>
     <row r="164">
-      <c r="A164" t="n">
+      <c r="A164" s="5" t="n">
         <v>352</v>
       </c>
-      <c r="B164" t="n">
+      <c r="B164" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C164" t="inlineStr">
@@ -4454,8 +4460,8 @@
           <t>PASS THRU SHELF</t>
         </is>
       </c>
-      <c r="F164" s="5" t="n"/>
-      <c r="G164" s="6" t="n"/>
+      <c r="F164" s="7" t="n"/>
+      <c r="G164" s="8" t="n"/>
       <c r="S164" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
@@ -4463,10 +4469,10 @@
       </c>
     </row>
     <row r="165">
-      <c r="A165" t="n">
+      <c r="A165" s="5" t="n">
         <v>353</v>
       </c>
-      <c r="B165" t="n">
+      <c r="B165" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C165" t="inlineStr">
@@ -4480,10 +4486,10 @@
       <c r="E165" t="n">
         <v>1</v>
       </c>
-      <c r="F165" s="5" t="n">
+      <c r="F165" s="7" t="n">
         <v>40</v>
       </c>
-      <c r="G165" s="6">
+      <c r="G165" s="8">
         <f>IF(E165&gt;1,(1.732*D165*F165)/1000,(D165*F165)/1000)</f>
         <v/>
       </c>
@@ -4512,10 +4518,10 @@
       </c>
     </row>
     <row r="166">
-      <c r="A166" t="n">
+      <c r="A166" s="5" t="n">
         <v>354</v>
       </c>
-      <c r="B166" t="n">
+      <c r="B166" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C166" t="inlineStr">
@@ -4523,8 +4529,8 @@
           <t>DOUBLE BOTTLE RAIL</t>
         </is>
       </c>
-      <c r="F166" s="5" t="n"/>
-      <c r="G166" s="6" t="n"/>
+      <c r="F166" s="7" t="n"/>
+      <c r="G166" s="8" t="n"/>
       <c r="S166" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION PART OF ITEM #353</t>
@@ -4532,10 +4538,10 @@
       </c>
     </row>
     <row r="167">
-      <c r="A167" t="n">
+      <c r="A167" s="5" t="n">
         <v>355</v>
       </c>
-      <c r="B167" t="inlineStr">
+      <c r="B167" s="6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -4545,14 +4551,14 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F167" s="5" t="n"/>
-      <c r="G167" s="6" t="n"/>
+      <c r="F167" s="7" t="n"/>
+      <c r="G167" s="8" t="n"/>
     </row>
     <row r="168">
-      <c r="A168" t="n">
+      <c r="A168" s="5" t="n">
         <v>356</v>
       </c>
-      <c r="B168" t="n">
+      <c r="B168" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C168" t="inlineStr">
@@ -4560,8 +4566,8 @@
           <t>COCKTAIL STATION</t>
         </is>
       </c>
-      <c r="F168" s="5" t="n"/>
-      <c r="G168" s="6" t="n"/>
+      <c r="F168" s="7" t="n"/>
+      <c r="G168" s="8" t="n"/>
       <c r="K168" t="inlineStr">
         <is>
           <t>1"</t>
@@ -4574,10 +4580,10 @@
       </c>
     </row>
     <row r="169">
-      <c r="A169" t="n">
+      <c r="A169" s="5" t="n">
         <v>357</v>
       </c>
-      <c r="B169" t="n">
+      <c r="B169" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C169" t="inlineStr">
@@ -4591,10 +4597,10 @@
       <c r="E169" t="n">
         <v>1</v>
       </c>
-      <c r="F169" s="5" t="n">
+      <c r="F169" s="7" t="n">
         <v>8</v>
       </c>
-      <c r="G169" s="6">
+      <c r="G169" s="8">
         <f>IF(E169&gt;1,(1.732*D169*F169)/1000,(D169*F169)/1000)</f>
         <v/>
       </c>
@@ -4610,10 +4616,10 @@
       </c>
     </row>
     <row r="170">
-      <c r="A170" t="n">
+      <c r="A170" s="5" t="n">
         <v>358</v>
       </c>
-      <c r="B170" t="n">
+      <c r="B170" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C170" t="inlineStr">
@@ -4627,10 +4633,10 @@
       <c r="E170" t="n">
         <v>1</v>
       </c>
-      <c r="F170" s="5" t="n">
+      <c r="F170" s="7" t="n">
         <v>13</v>
       </c>
-      <c r="G170" s="6">
+      <c r="G170" s="8">
         <f>IF(E170&gt;1,(1.732*D170*F170)/1000,(D170*F170)/1000)</f>
         <v/>
       </c>
@@ -4646,10 +4652,10 @@
       </c>
     </row>
     <row r="171">
-      <c r="A171" t="n">
+      <c r="A171" s="5" t="n">
         <v>359</v>
       </c>
-      <c r="B171" t="inlineStr">
+      <c r="B171" s="6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -4659,14 +4665,14 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F171" s="5" t="n"/>
-      <c r="G171" s="6" t="n"/>
+      <c r="F171" s="7" t="n"/>
+      <c r="G171" s="8" t="n"/>
     </row>
     <row r="172">
-      <c r="A172" t="n">
+      <c r="A172" s="5" t="n">
         <v>360</v>
       </c>
-      <c r="B172" t="inlineStr">
+      <c r="B172" s="6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -4676,14 +4682,14 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F172" s="5" t="n"/>
-      <c r="G172" s="6" t="n"/>
+      <c r="F172" s="7" t="n"/>
+      <c r="G172" s="8" t="n"/>
     </row>
     <row r="173">
-      <c r="A173" t="n">
+      <c r="A173" s="5" t="n">
         <v>361</v>
       </c>
-      <c r="B173" t="n">
+      <c r="B173" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C173" t="inlineStr">
@@ -4697,10 +4703,10 @@
       <c r="E173" t="n">
         <v>3</v>
       </c>
-      <c r="F173" s="5" t="n">
+      <c r="F173" s="7" t="n">
         <v>32.1</v>
       </c>
-      <c r="G173" s="6">
+      <c r="G173" s="8">
         <f>IF(E173&gt;1,(1.732*D173*F173)/1000,(D173*F173)/1000)</f>
         <v/>
       </c>
@@ -4724,10 +4730,10 @@
       </c>
     </row>
     <row r="174">
-      <c r="A174" t="n">
+      <c r="A174" s="5" t="n">
         <v>362</v>
       </c>
-      <c r="B174" t="n">
+      <c r="B174" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C174" t="inlineStr">
@@ -4735,8 +4741,8 @@
           <t>DOUBLE WALL SHELF</t>
         </is>
       </c>
-      <c r="F174" s="5" t="n"/>
-      <c r="G174" s="6" t="n"/>
+      <c r="F174" s="7" t="n"/>
+      <c r="G174" s="8" t="n"/>
       <c r="S174" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
@@ -4744,10 +4750,10 @@
       </c>
     </row>
     <row r="175">
-      <c r="A175" t="n">
+      <c r="A175" s="5" t="n">
         <v>363</v>
       </c>
-      <c r="B175" t="n">
+      <c r="B175" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C175" t="inlineStr">
@@ -4755,8 +4761,8 @@
           <t>TRASH RECEPTACLE</t>
         </is>
       </c>
-      <c r="F175" s="5" t="n"/>
-      <c r="G175" s="6" t="n"/>
+      <c r="F175" s="7" t="n"/>
+      <c r="G175" s="8" t="n"/>
       <c r="S175" t="inlineStr">
         <is>
           <t>SLIM JIM</t>
@@ -4764,10 +4770,10 @@
       </c>
     </row>
     <row r="176">
-      <c r="A176" t="n">
+      <c r="A176" s="5" t="n">
         <v>364</v>
       </c>
-      <c r="B176" t="n">
+      <c r="B176" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C176" t="inlineStr">
@@ -4775,8 +4781,8 @@
           <t>KNOCK BOX</t>
         </is>
       </c>
-      <c r="F176" s="5" t="n"/>
-      <c r="G176" s="6" t="n"/>
+      <c r="F176" s="7" t="n"/>
+      <c r="G176" s="8" t="n"/>
       <c r="S176" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION PART OF ITEM #353</t>
@@ -4784,10 +4790,10 @@
       </c>
     </row>
     <row r="177">
-      <c r="A177" t="n">
+      <c r="A177" s="5" t="n">
         <v>365</v>
       </c>
-      <c r="B177" t="inlineStr">
+      <c r="B177" s="6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -4797,14 +4803,14 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F177" s="5" t="n"/>
-      <c r="G177" s="6" t="n"/>
+      <c r="F177" s="7" t="n"/>
+      <c r="G177" s="8" t="n"/>
     </row>
     <row r="178">
-      <c r="A178" t="n">
+      <c r="A178" s="5" t="n">
         <v>366</v>
       </c>
-      <c r="B178" t="n">
+      <c r="B178" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C178" t="inlineStr">
@@ -4818,19 +4824,19 @@
       <c r="E178" t="n">
         <v>1</v>
       </c>
-      <c r="F178" s="5" t="n">
+      <c r="F178" s="7" t="n">
         <v>3.5</v>
       </c>
-      <c r="G178" s="6">
+      <c r="G178" s="8">
         <f>IF(E178&gt;1,(1.732*D178*F178)/1000,(D178*F178)/1000)</f>
         <v/>
       </c>
     </row>
     <row r="179">
-      <c r="A179" t="n">
+      <c r="A179" s="5" t="n">
         <v>367</v>
       </c>
-      <c r="B179" t="n">
+      <c r="B179" s="6" t="n">
         <v>2</v>
       </c>
       <c r="C179" t="inlineStr">
@@ -4844,19 +4850,19 @@
       <c r="E179" t="n">
         <v>1</v>
       </c>
-      <c r="F179" s="5" t="n">
+      <c r="F179" s="7" t="n">
         <v>5.4</v>
       </c>
-      <c r="G179" s="6">
+      <c r="G179" s="8">
         <f>IF(E179&gt;1,(1.732*D179*F179)/1000,(D179*F179)/1000)</f>
         <v/>
       </c>
     </row>
     <row r="180">
-      <c r="A180" t="n">
+      <c r="A180" s="5" t="n">
         <v>368</v>
       </c>
-      <c r="B180" t="n">
+      <c r="B180" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C180" t="inlineStr">
@@ -4870,19 +4876,19 @@
       <c r="E180" t="n">
         <v>1</v>
       </c>
-      <c r="F180" s="5" t="n">
+      <c r="F180" s="7" t="n">
         <v>2.7</v>
       </c>
-      <c r="G180" s="6">
+      <c r="G180" s="8">
         <f>IF(E180&gt;1,(1.732*D180*F180)/1000,(D180*F180)/1000)</f>
         <v/>
       </c>
     </row>
     <row r="181">
-      <c r="A181" t="n">
+      <c r="A181" s="5" t="n">
         <v>369</v>
       </c>
-      <c r="B181" t="inlineStr">
+      <c r="B181" s="6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -4892,14 +4898,14 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F181" s="5" t="n"/>
-      <c r="G181" s="6" t="n"/>
+      <c r="F181" s="7" t="n"/>
+      <c r="G181" s="8" t="n"/>
     </row>
     <row r="182">
-      <c r="A182" t="n">
+      <c r="A182" s="5" t="n">
         <v>370</v>
       </c>
-      <c r="B182" t="inlineStr">
+      <c r="B182" s="6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -4909,14 +4915,14 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F182" s="5" t="n"/>
-      <c r="G182" s="6" t="n"/>
+      <c r="F182" s="7" t="n"/>
+      <c r="G182" s="8" t="n"/>
     </row>
     <row r="183">
-      <c r="A183" t="n">
+      <c r="A183" s="5" t="n">
         <v>371</v>
       </c>
-      <c r="B183" t="n">
+      <c r="B183" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C183" t="inlineStr">
@@ -4930,10 +4936,10 @@
       <c r="E183" t="n">
         <v>1</v>
       </c>
-      <c r="F183" s="5" t="n">
+      <c r="F183" s="7" t="n">
         <v>15</v>
       </c>
-      <c r="G183" s="6">
+      <c r="G183" s="8">
         <f>IF(E183&gt;1,(1.732*D183*F183)/1000,(D183*F183)/1000)</f>
         <v/>
       </c>
@@ -4944,10 +4950,10 @@
       </c>
     </row>
     <row r="184">
-      <c r="A184" t="n">
+      <c r="A184" s="5" t="n">
         <v>372</v>
       </c>
-      <c r="B184" t="n">
+      <c r="B184" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C184" t="inlineStr">
@@ -4961,10 +4967,10 @@
       <c r="E184" t="n">
         <v>1</v>
       </c>
-      <c r="F184" s="5" t="n">
+      <c r="F184" s="7" t="n">
         <v>13</v>
       </c>
-      <c r="G184" s="6">
+      <c r="G184" s="8">
         <f>IF(E184&gt;1,(1.732*D184*F184)/1000,(D184*F184)/1000)</f>
         <v/>
       </c>
@@ -4978,10 +4984,10 @@
       </c>
     </row>
     <row r="185">
-      <c r="A185" t="n">
+      <c r="A185" s="5" t="n">
         <v>373</v>
       </c>
-      <c r="B185" t="n">
+      <c r="B185" s="6" t="n">
         <v>4</v>
       </c>
       <c r="C185" t="inlineStr">
@@ -4989,14 +4995,14 @@
           <t>AIRPOT</t>
         </is>
       </c>
-      <c r="F185" s="5" t="n"/>
-      <c r="G185" s="6" t="n"/>
+      <c r="F185" s="7" t="n"/>
+      <c r="G185" s="8" t="n"/>
     </row>
     <row r="186">
-      <c r="A186" t="n">
+      <c r="A186" s="5" t="n">
         <v>374</v>
       </c>
-      <c r="B186" t="n">
+      <c r="B186" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C186" t="inlineStr">
@@ -5004,8 +5010,8 @@
           <t>UNDER COUNTER WATER FILTRATION SYSTEM</t>
         </is>
       </c>
-      <c r="F186" s="5" t="n"/>
-      <c r="G186" s="6" t="n"/>
+      <c r="F186" s="7" t="n"/>
+      <c r="G186" s="8" t="n"/>
       <c r="H186" t="inlineStr">
         <is>
           <t>3/8"</t>
@@ -5021,10 +5027,10 @@
       </c>
     </row>
     <row r="187">
-      <c r="A187" t="n">
+      <c r="A187" s="5" t="n">
         <v>375</v>
       </c>
-      <c r="B187" t="inlineStr">
+      <c r="B187" s="6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -5034,14 +5040,14 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F187" s="5" t="n"/>
-      <c r="G187" s="6" t="n"/>
+      <c r="F187" s="7" t="n"/>
+      <c r="G187" s="8" t="n"/>
     </row>
     <row r="188">
-      <c r="A188" t="n">
+      <c r="A188" s="5" t="n">
         <v>376</v>
       </c>
-      <c r="B188" t="n">
+      <c r="B188" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C188" t="inlineStr">
@@ -5055,19 +5061,19 @@
       <c r="E188" t="n">
         <v>1</v>
       </c>
-      <c r="F188" s="5" t="n">
+      <c r="F188" s="7" t="n">
         <v>15</v>
       </c>
-      <c r="G188" s="6">
+      <c r="G188" s="8">
         <f>IF(E188&gt;1,(1.732*D188*F188)/1000,(D188*F188)/1000)</f>
         <v/>
       </c>
     </row>
     <row r="189">
-      <c r="A189" t="n">
+      <c r="A189" s="5" t="n">
         <v>377</v>
       </c>
-      <c r="B189" t="n">
+      <c r="B189" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C189" t="inlineStr">
@@ -5075,8 +5081,8 @@
           <t>GLASS FILLER SINK</t>
         </is>
       </c>
-      <c r="F189" s="5" t="n"/>
-      <c r="G189" s="6" t="n"/>
+      <c r="F189" s="7" t="n"/>
+      <c r="G189" s="8" t="n"/>
       <c r="H189" t="inlineStr">
         <is>
           <t>3/8"</t>
@@ -5092,10 +5098,10 @@
       </c>
     </row>
     <row r="190">
-      <c r="A190" t="n">
+      <c r="A190" s="5" t="n">
         <v>378</v>
       </c>
-      <c r="B190" t="n">
+      <c r="B190" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C190" t="inlineStr">
@@ -5103,8 +5109,8 @@
           <t>GLASS RINSER</t>
         </is>
       </c>
-      <c r="F190" s="5" t="n"/>
-      <c r="G190" s="6" t="n"/>
+      <c r="F190" s="7" t="n"/>
+      <c r="G190" s="8" t="n"/>
       <c r="H190" t="inlineStr">
         <is>
           <t>1/2"</t>
@@ -5120,10 +5126,10 @@
       </c>
     </row>
     <row r="191">
-      <c r="A191" t="n">
+      <c r="A191" s="5" t="n">
         <v>379</v>
       </c>
-      <c r="B191" t="inlineStr">
+      <c r="B191" s="6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -5133,14 +5139,14 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F191" s="5" t="n"/>
-      <c r="G191" s="6" t="n"/>
+      <c r="F191" s="7" t="n"/>
+      <c r="G191" s="8" t="n"/>
     </row>
     <row r="192">
-      <c r="A192" t="n">
+      <c r="A192" s="5" t="n">
         <v>380</v>
       </c>
-      <c r="B192" t="inlineStr">
+      <c r="B192" s="6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -5150,14 +5156,14 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F192" s="5" t="n"/>
-      <c r="G192" s="6" t="n"/>
+      <c r="F192" s="7" t="n"/>
+      <c r="G192" s="8" t="n"/>
     </row>
     <row r="193">
-      <c r="A193" t="n">
+      <c r="A193" s="5" t="n">
         <v>381</v>
       </c>
-      <c r="B193" t="n">
+      <c r="B193" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C193" t="inlineStr">
@@ -5165,8 +5171,8 @@
           <t>TRASH CHUTE</t>
         </is>
       </c>
-      <c r="F193" s="5" t="n"/>
-      <c r="G193" s="6" t="n"/>
+      <c r="F193" s="7" t="n"/>
+      <c r="G193" s="8" t="n"/>
       <c r="S193" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION PART OF ITEM #353</t>
@@ -5174,10 +5180,10 @@
       </c>
     </row>
     <row r="194">
-      <c r="A194" t="n">
+      <c r="A194" s="5" t="n">
         <v>382</v>
       </c>
-      <c r="B194" t="n">
+      <c r="B194" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C194" t="inlineStr">
@@ -5185,8 +5191,8 @@
           <t>TRASH RECEPTACLE</t>
         </is>
       </c>
-      <c r="F194" s="5" t="n"/>
-      <c r="G194" s="6" t="n"/>
+      <c r="F194" s="7" t="n"/>
+      <c r="G194" s="8" t="n"/>
       <c r="S194" t="inlineStr">
         <is>
           <t>SLIM JIM</t>
@@ -5194,10 +5200,10 @@
       </c>
     </row>
     <row r="195">
-      <c r="A195" t="n">
+      <c r="A195" s="5" t="n">
         <v>383</v>
       </c>
-      <c r="B195" t="n">
+      <c r="B195" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C195" t="inlineStr">
@@ -5205,8 +5211,8 @@
           <t>DROP-IN HAND SINK</t>
         </is>
       </c>
-      <c r="F195" s="5" t="n"/>
-      <c r="G195" s="6" t="n"/>
+      <c r="F195" s="7" t="n"/>
+      <c r="G195" s="8" t="n"/>
       <c r="H195" t="inlineStr">
         <is>
           <t>1/2"</t>
@@ -5232,10 +5238,10 @@
       </c>
     </row>
     <row r="196">
-      <c r="A196" t="n">
+      <c r="A196" s="5" t="n">
         <v>384</v>
       </c>
-      <c r="B196" t="n">
+      <c r="B196" s="6" t="n">
         <v>3</v>
       </c>
       <c r="C196" t="inlineStr">
@@ -5249,19 +5255,19 @@
       <c r="E196" t="n">
         <v>1</v>
       </c>
-      <c r="F196" s="5" t="n">
+      <c r="F196" s="7" t="n">
         <v>1.5</v>
       </c>
-      <c r="G196" s="6">
+      <c r="G196" s="8">
         <f>IF(E196&gt;1,(1.732*D196*F196)/1000,(D196*F196)/1000)</f>
         <v/>
       </c>
     </row>
     <row r="197">
-      <c r="A197" t="n">
+      <c r="A197" s="5" t="n">
         <v>385</v>
       </c>
-      <c r="B197" t="inlineStr">
+      <c r="B197" s="6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -5271,14 +5277,14 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F197" s="5" t="n"/>
-      <c r="G197" s="6" t="n"/>
+      <c r="F197" s="7" t="n"/>
+      <c r="G197" s="8" t="n"/>
     </row>
     <row r="198">
-      <c r="A198" t="n">
+      <c r="A198" s="5" t="n">
         <v>386</v>
       </c>
-      <c r="B198" t="n">
+      <c r="B198" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C198" t="inlineStr">
@@ -5292,10 +5298,10 @@
       <c r="E198" t="n">
         <v>1</v>
       </c>
-      <c r="F198" s="5" t="n">
+      <c r="F198" s="7" t="n">
         <v>20</v>
       </c>
-      <c r="G198" s="6">
+      <c r="G198" s="8">
         <f>IF(E198&gt;1,(1.732*D198*F198)/1000,(D198*F198)/1000)</f>
         <v/>
       </c>
@@ -5306,10 +5312,10 @@
       </c>
     </row>
     <row r="199">
-      <c r="A199" t="n">
+      <c r="A199" s="5" t="n">
         <v>387</v>
       </c>
-      <c r="B199" t="n">
+      <c r="B199" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C199" t="inlineStr">
@@ -5323,10 +5329,10 @@
       <c r="E199" t="n">
         <v>1</v>
       </c>
-      <c r="F199" s="5" t="n">
+      <c r="F199" s="7" t="n">
         <v>5</v>
       </c>
-      <c r="G199" s="6">
+      <c r="G199" s="8">
         <f>IF(E199&gt;1,(1.732*D199*F199)/1000,(D199*F199)/1000)</f>
         <v/>
       </c>
@@ -5337,10 +5343,10 @@
       </c>
     </row>
     <row r="200">
-      <c r="A200" t="n">
+      <c r="A200" s="5" t="n">
         <v>388</v>
       </c>
-      <c r="B200" t="n">
+      <c r="B200" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C200" t="inlineStr">
@@ -5348,8 +5354,8 @@
           <t>TRASH RECEPTACLE</t>
         </is>
       </c>
-      <c r="F200" s="5" t="n"/>
-      <c r="G200" s="6" t="n"/>
+      <c r="F200" s="7" t="n"/>
+      <c r="G200" s="8" t="n"/>
       <c r="S200" t="inlineStr">
         <is>
           <t>SLIM JIM</t>
@@ -5357,10 +5363,10 @@
       </c>
     </row>
     <row r="201">
-      <c r="A201" t="n">
+      <c r="A201" s="5" t="n">
         <v>389</v>
       </c>
-      <c r="B201" t="inlineStr">
+      <c r="B201" s="6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -5370,14 +5376,14 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F201" s="5" t="n"/>
-      <c r="G201" s="6" t="n"/>
+      <c r="F201" s="7" t="n"/>
+      <c r="G201" s="8" t="n"/>
     </row>
     <row r="202">
-      <c r="A202" t="n">
+      <c r="A202" s="5" t="n">
         <v>390</v>
       </c>
-      <c r="B202" t="inlineStr">
+      <c r="B202" s="6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -5387,14 +5393,14 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F202" s="5" t="n"/>
-      <c r="G202" s="6" t="n"/>
+      <c r="F202" s="7" t="n"/>
+      <c r="G202" s="8" t="n"/>
     </row>
     <row r="203">
-      <c r="A203" t="n">
+      <c r="A203" s="5" t="n">
         <v>391</v>
       </c>
-      <c r="B203" t="n">
+      <c r="B203" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C203" t="inlineStr">
@@ -5402,8 +5408,8 @@
           <t>TRASH CHUTE</t>
         </is>
       </c>
-      <c r="F203" s="5" t="n"/>
-      <c r="G203" s="6" t="n"/>
+      <c r="F203" s="7" t="n"/>
+      <c r="G203" s="8" t="n"/>
       <c r="S203" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION PART OF ITEM #394</t>
@@ -5411,10 +5417,10 @@
       </c>
     </row>
     <row r="204">
-      <c r="A204" t="n">
+      <c r="A204" s="5" t="n">
         <v>392</v>
       </c>
-      <c r="B204" t="n">
+      <c r="B204" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C204" t="inlineStr">
@@ -5428,10 +5434,10 @@
       <c r="E204" t="n">
         <v>1</v>
       </c>
-      <c r="F204" s="5" t="n">
+      <c r="F204" s="7" t="n">
         <v>20</v>
       </c>
-      <c r="G204" s="6">
+      <c r="G204" s="8">
         <f>IF(E204&gt;1,(1.732*D204*F204)/1000,(D204*F204)/1000)</f>
         <v/>
       </c>
@@ -5442,10 +5448,10 @@
       </c>
     </row>
     <row r="205">
-      <c r="A205" t="n">
+      <c r="A205" s="5" t="n">
         <v>393</v>
       </c>
-      <c r="B205" t="n">
+      <c r="B205" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C205" t="inlineStr">
@@ -5459,10 +5465,10 @@
       <c r="E205" t="n">
         <v>1</v>
       </c>
-      <c r="F205" s="5" t="n">
+      <c r="F205" s="7" t="n">
         <v>5</v>
       </c>
-      <c r="G205" s="6">
+      <c r="G205" s="8">
         <f>IF(E205&gt;1,(1.732*D205*F205)/1000,(D205*F205)/1000)</f>
         <v/>
       </c>
@@ -5473,10 +5479,10 @@
       </c>
     </row>
     <row r="206">
-      <c r="A206" t="n">
+      <c r="A206" s="5" t="n">
         <v>394</v>
       </c>
-      <c r="B206" t="n">
+      <c r="B206" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C206" t="inlineStr">
@@ -5484,8 +5490,8 @@
           <t>POS COUNTER</t>
         </is>
       </c>
-      <c r="F206" s="5" t="n"/>
-      <c r="G206" s="6" t="n"/>
+      <c r="F206" s="7" t="n"/>
+      <c r="G206" s="8" t="n"/>
       <c r="S206" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION WITH PLATE STORAGE SHELVING</t>
@@ -5493,10 +5499,10 @@
       </c>
     </row>
     <row r="207">
-      <c r="A207" t="n">
+      <c r="A207" s="5" t="n">
         <v>395</v>
       </c>
-      <c r="B207" t="inlineStr">
+      <c r="B207" s="6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -5506,14 +5512,14 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F207" s="5" t="n"/>
-      <c r="G207" s="6" t="n"/>
+      <c r="F207" s="7" t="n"/>
+      <c r="G207" s="8" t="n"/>
     </row>
     <row r="208">
-      <c r="A208" t="n">
+      <c r="A208" s="5" t="n">
         <v>396</v>
       </c>
-      <c r="B208" t="n">
+      <c r="B208" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C208" t="inlineStr">
@@ -5521,8 +5527,8 @@
           <t>WALL CABINET</t>
         </is>
       </c>
-      <c r="F208" s="5" t="n"/>
-      <c r="G208" s="6" t="n"/>
+      <c r="F208" s="7" t="n"/>
+      <c r="G208" s="8" t="n"/>
       <c r="S208" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
@@ -5530,10 +5536,10 @@
       </c>
     </row>
     <row r="209">
-      <c r="A209" t="n">
+      <c r="A209" s="5" t="n">
         <v>397</v>
       </c>
-      <c r="B209" t="inlineStr">
+      <c r="B209" s="6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -5543,14 +5549,14 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F209" s="5" t="n"/>
-      <c r="G209" s="6" t="n"/>
+      <c r="F209" s="7" t="n"/>
+      <c r="G209" s="8" t="n"/>
     </row>
     <row r="210">
-      <c r="A210" t="n">
+      <c r="A210" s="5" t="n">
         <v>398</v>
       </c>
-      <c r="B210" t="inlineStr">
+      <c r="B210" s="6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -5560,14 +5566,14 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F210" s="5" t="n"/>
-      <c r="G210" s="6" t="n"/>
+      <c r="F210" s="7" t="n"/>
+      <c r="G210" s="8" t="n"/>
     </row>
     <row r="211">
-      <c r="A211" t="n">
+      <c r="A211" s="5" t="n">
         <v>399</v>
       </c>
-      <c r="B211" t="inlineStr">
+      <c r="B211" s="6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -5577,14 +5583,14 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F211" s="5" t="n"/>
-      <c r="G211" s="6" t="n"/>
+      <c r="F211" s="7" t="n"/>
+      <c r="G211" s="8" t="n"/>
     </row>
     <row r="212">
-      <c r="A212" t="n">
+      <c r="A212" s="5" t="n">
         <v>400</v>
       </c>
-      <c r="B212" t="inlineStr">
+      <c r="B212" s="6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -5594,8 +5600,8 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F212" s="5" t="n"/>
-      <c r="G212" s="6" t="n"/>
+      <c r="F212" s="7" t="n"/>
+      <c r="G212" s="8" t="n"/>
     </row>
     <row r="213">
       <c r="A213" s="3" t="inlineStr">
@@ -5623,10 +5629,10 @@
       <c r="S213" s="4" t="n"/>
     </row>
     <row r="214">
-      <c r="A214" t="n">
+      <c r="A214" s="5" t="n">
         <v>401</v>
       </c>
-      <c r="B214" t="n">
+      <c r="B214" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C214" t="inlineStr">
@@ -5634,8 +5640,8 @@
           <t>SUSHI BAR TOP AND DIE</t>
         </is>
       </c>
-      <c r="F214" s="5" t="n"/>
-      <c r="G214" s="6" t="n"/>
+      <c r="F214" s="7" t="n"/>
+      <c r="G214" s="8" t="n"/>
       <c r="S214" t="inlineStr">
         <is>
           <t>MILLWORK / BY GENERAL CONTRACTOR</t>
@@ -5643,10 +5649,10 @@
       </c>
     </row>
     <row r="215">
-      <c r="A215" t="n">
+      <c r="A215" s="5" t="n">
         <v>402</v>
       </c>
-      <c r="B215" t="n">
+      <c r="B215" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C215" t="inlineStr">
@@ -5660,10 +5666,10 @@
       <c r="E215" t="n">
         <v>1</v>
       </c>
-      <c r="F215" s="5" t="n">
+      <c r="F215" s="7" t="n">
         <v>60</v>
       </c>
-      <c r="G215" s="6">
+      <c r="G215" s="8">
         <f>IF(E215&gt;1,(1.732*D215*F215)/1000,(D215*F215)/1000)</f>
         <v/>
       </c>
@@ -5674,10 +5680,10 @@
       </c>
     </row>
     <row r="216">
-      <c r="A216" t="n">
+      <c r="A216" s="5" t="n">
         <v>403</v>
       </c>
-      <c r="B216" t="n">
+      <c r="B216" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C216" t="inlineStr">
@@ -5685,8 +5691,8 @@
           <t>DROP-IN HAND SINK</t>
         </is>
       </c>
-      <c r="F216" s="5" t="n"/>
-      <c r="G216" s="6" t="n"/>
+      <c r="F216" s="7" t="n"/>
+      <c r="G216" s="8" t="n"/>
       <c r="H216" t="inlineStr">
         <is>
           <t>1/2"</t>
@@ -5712,10 +5718,10 @@
       </c>
     </row>
     <row r="217">
-      <c r="A217" t="n">
+      <c r="A217" s="5" t="n">
         <v>404</v>
       </c>
-      <c r="B217" t="n">
+      <c r="B217" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C217" t="inlineStr">
@@ -5723,8 +5729,8 @@
           <t>STAINLESS STEEL TRASH RECEPTACLE</t>
         </is>
       </c>
-      <c r="F217" s="5" t="n"/>
-      <c r="G217" s="6" t="n"/>
+      <c r="F217" s="7" t="n"/>
+      <c r="G217" s="8" t="n"/>
       <c r="S217" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
@@ -5732,10 +5738,10 @@
       </c>
     </row>
     <row r="218">
-      <c r="A218" t="n">
+      <c r="A218" s="5" t="n">
         <v>405</v>
       </c>
-      <c r="B218" t="inlineStr">
+      <c r="B218" s="6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -5745,14 +5751,14 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F218" s="5" t="n"/>
-      <c r="G218" s="6" t="n"/>
+      <c r="F218" s="7" t="n"/>
+      <c r="G218" s="8" t="n"/>
     </row>
     <row r="219">
-      <c r="A219" t="n">
+      <c r="A219" s="5" t="n">
         <v>406</v>
       </c>
-      <c r="B219" t="n">
+      <c r="B219" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C219" t="inlineStr">
@@ -5760,8 +5766,8 @@
           <t>TRASH CHUTE</t>
         </is>
       </c>
-      <c r="F219" s="5" t="n"/>
-      <c r="G219" s="6" t="n"/>
+      <c r="F219" s="7" t="n"/>
+      <c r="G219" s="8" t="n"/>
       <c r="S219" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION PART OF ITEM #402</t>
@@ -5769,10 +5775,10 @@
       </c>
     </row>
     <row r="220">
-      <c r="A220" t="n">
+      <c r="A220" s="5" t="n">
         <v>407</v>
       </c>
-      <c r="B220" t="n">
+      <c r="B220" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C220" t="inlineStr">
@@ -5780,8 +5786,8 @@
           <t>CUTTING BOARD</t>
         </is>
       </c>
-      <c r="F220" s="5" t="n"/>
-      <c r="G220" s="6" t="n"/>
+      <c r="F220" s="7" t="n"/>
+      <c r="G220" s="8" t="n"/>
       <c r="S220" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION RECESSED PART OF ITEM #402</t>
@@ -5789,10 +5795,10 @@
       </c>
     </row>
     <row r="221">
-      <c r="A221" t="n">
+      <c r="A221" s="5" t="n">
         <v>408</v>
       </c>
-      <c r="B221" t="n">
+      <c r="B221" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C221" t="inlineStr">
@@ -5806,19 +5812,19 @@
       <c r="E221" t="n">
         <v>1</v>
       </c>
-      <c r="F221" s="5" t="n">
+      <c r="F221" s="7" t="n">
         <v>5</v>
       </c>
-      <c r="G221" s="6">
+      <c r="G221" s="8">
         <f>IF(E221&gt;1,(1.732*D221*F221)/1000,(D221*F221)/1000)</f>
         <v/>
       </c>
     </row>
     <row r="222">
-      <c r="A222" t="n">
+      <c r="A222" s="5" t="n">
         <v>409</v>
       </c>
-      <c r="B222" t="inlineStr">
+      <c r="B222" s="6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -5828,14 +5834,14 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F222" s="5" t="n"/>
-      <c r="G222" s="6" t="n"/>
+      <c r="F222" s="7" t="n"/>
+      <c r="G222" s="8" t="n"/>
     </row>
     <row r="223">
-      <c r="A223" t="n">
+      <c r="A223" s="5" t="n">
         <v>410</v>
       </c>
-      <c r="B223" t="inlineStr">
+      <c r="B223" s="6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -5845,14 +5851,14 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F223" s="5" t="n"/>
-      <c r="G223" s="6" t="n"/>
+      <c r="F223" s="7" t="n"/>
+      <c r="G223" s="8" t="n"/>
     </row>
     <row r="224">
-      <c r="A224" t="n">
+      <c r="A224" s="5" t="n">
         <v>411</v>
       </c>
-      <c r="B224" t="n">
+      <c r="B224" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C224" t="inlineStr">
@@ -5866,10 +5872,10 @@
       <c r="E224" t="n">
         <v>1</v>
       </c>
-      <c r="F224" s="5" t="n">
+      <c r="F224" s="7" t="n">
         <v>4</v>
       </c>
-      <c r="G224" s="6">
+      <c r="G224" s="8">
         <f>IF(E224&gt;1,(1.732*D224*F224)/1000,(D224*F224)/1000)</f>
         <v/>
       </c>
@@ -5885,10 +5891,10 @@
       </c>
     </row>
     <row r="225">
-      <c r="A225" t="n">
+      <c r="A225" s="5" t="n">
         <v>412</v>
       </c>
-      <c r="B225" t="n">
+      <c r="B225" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C225" t="inlineStr">
@@ -5896,8 +5902,8 @@
           <t>RICE WARMER STAND</t>
         </is>
       </c>
-      <c r="F225" s="5" t="n"/>
-      <c r="G225" s="6" t="n"/>
+      <c r="F225" s="7" t="n"/>
+      <c r="G225" s="8" t="n"/>
       <c r="S225" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION MOBILE</t>
@@ -5905,10 +5911,10 @@
       </c>
     </row>
     <row r="226">
-      <c r="A226" t="n">
+      <c r="A226" s="5" t="n">
         <v>413</v>
       </c>
-      <c r="B226" t="n">
+      <c r="B226" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C226" t="inlineStr">
@@ -5922,19 +5928,19 @@
       <c r="E226" t="n">
         <v>1</v>
       </c>
-      <c r="F226" s="5" t="n">
+      <c r="F226" s="7" t="n">
         <v>0.4</v>
       </c>
-      <c r="G226" s="6">
+      <c r="G226" s="8">
         <f>IF(E226&gt;1,(1.732*D226*F226)/1000,(D226*F226)/1000)</f>
         <v/>
       </c>
     </row>
     <row r="227">
-      <c r="A227" t="n">
+      <c r="A227" s="5" t="n">
         <v>414</v>
       </c>
-      <c r="B227" t="n">
+      <c r="B227" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C227" t="inlineStr">
@@ -5942,8 +5948,8 @@
           <t>PREPARATION SINK</t>
         </is>
       </c>
-      <c r="F227" s="5" t="n"/>
-      <c r="G227" s="6" t="n"/>
+      <c r="F227" s="7" t="n"/>
+      <c r="G227" s="8" t="n"/>
       <c r="H227" t="inlineStr">
         <is>
           <t>1/2"</t>
@@ -5969,10 +5975,10 @@
       </c>
     </row>
     <row r="228">
-      <c r="A228" t="n">
+      <c r="A228" s="5" t="n">
         <v>415</v>
       </c>
-      <c r="B228" t="inlineStr">
+      <c r="B228" s="6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -5982,14 +5988,14 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F228" s="5" t="n"/>
-      <c r="G228" s="6" t="n"/>
+      <c r="F228" s="7" t="n"/>
+      <c r="G228" s="8" t="n"/>
     </row>
     <row r="229">
-      <c r="A229" t="n">
+      <c r="A229" s="5" t="n">
         <v>416</v>
       </c>
-      <c r="B229" t="n">
+      <c r="B229" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C229" t="inlineStr">
@@ -5997,8 +6003,8 @@
           <t>CUTTING BOARD</t>
         </is>
       </c>
-      <c r="F229" s="5" t="n"/>
-      <c r="G229" s="6" t="n"/>
+      <c r="F229" s="7" t="n"/>
+      <c r="G229" s="8" t="n"/>
       <c r="S229" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION RECESSED PART OF ITEM #402</t>
@@ -6006,10 +6012,10 @@
       </c>
     </row>
     <row r="230">
-      <c r="A230" t="n">
+      <c r="A230" s="5" t="n">
         <v>417</v>
       </c>
-      <c r="B230" t="n">
+      <c r="B230" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C230" t="inlineStr">
@@ -6023,19 +6029,19 @@
       <c r="E230" t="n">
         <v>1</v>
       </c>
-      <c r="F230" s="5" t="n">
+      <c r="F230" s="7" t="n">
         <v>5</v>
       </c>
-      <c r="G230" s="6">
+      <c r="G230" s="8">
         <f>IF(E230&gt;1,(1.732*D230*F230)/1000,(D230*F230)/1000)</f>
         <v/>
       </c>
     </row>
     <row r="231">
-      <c r="A231" t="n">
+      <c r="A231" s="5" t="n">
         <v>418</v>
       </c>
-      <c r="B231" t="n">
+      <c r="B231" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C231" t="inlineStr">
@@ -6049,10 +6055,10 @@
       <c r="E231" t="n">
         <v>1</v>
       </c>
-      <c r="F231" s="5" t="n">
+      <c r="F231" s="7" t="n">
         <v>4</v>
       </c>
-      <c r="G231" s="6">
+      <c r="G231" s="8">
         <f>IF(E231&gt;1,(1.732*D231*F231)/1000,(D231*F231)/1000)</f>
         <v/>
       </c>
@@ -6068,10 +6074,10 @@
       </c>
     </row>
     <row r="232">
-      <c r="A232" t="n">
+      <c r="A232" s="5" t="n">
         <v>419</v>
       </c>
-      <c r="B232" t="inlineStr">
+      <c r="B232" s="6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -6081,14 +6087,14 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F232" s="5" t="n"/>
-      <c r="G232" s="6" t="n"/>
+      <c r="F232" s="7" t="n"/>
+      <c r="G232" s="8" t="n"/>
     </row>
     <row r="233">
-      <c r="A233" t="n">
+      <c r="A233" s="5" t="n">
         <v>420</v>
       </c>
-      <c r="B233" t="inlineStr">
+      <c r="B233" s="6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -6098,14 +6104,14 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F233" s="5" t="n"/>
-      <c r="G233" s="6" t="n"/>
+      <c r="F233" s="7" t="n"/>
+      <c r="G233" s="8" t="n"/>
     </row>
     <row r="234">
-      <c r="A234" t="n">
+      <c r="A234" s="5" t="n">
         <v>421</v>
       </c>
-      <c r="B234" t="n">
+      <c r="B234" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C234" t="inlineStr">
@@ -6113,8 +6119,8 @@
           <t>RICE WARMER STAND</t>
         </is>
       </c>
-      <c r="F234" s="5" t="n"/>
-      <c r="G234" s="6" t="n"/>
+      <c r="F234" s="7" t="n"/>
+      <c r="G234" s="8" t="n"/>
       <c r="S234" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION MOBILE</t>
@@ -6122,10 +6128,10 @@
       </c>
     </row>
     <row r="235">
-      <c r="A235" t="n">
+      <c r="A235" s="5" t="n">
         <v>422</v>
       </c>
-      <c r="B235" t="n">
+      <c r="B235" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C235" t="inlineStr">
@@ -6139,19 +6145,19 @@
       <c r="E235" t="n">
         <v>1</v>
       </c>
-      <c r="F235" s="5" t="n">
+      <c r="F235" s="7" t="n">
         <v>0.4</v>
       </c>
-      <c r="G235" s="6">
+      <c r="G235" s="8">
         <f>IF(E235&gt;1,(1.732*D235*F235)/1000,(D235*F235)/1000)</f>
         <v/>
       </c>
     </row>
     <row r="236">
-      <c r="A236" t="n">
+      <c r="A236" s="5" t="n">
         <v>423</v>
       </c>
-      <c r="B236" t="n">
+      <c r="B236" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C236" t="inlineStr">
@@ -6159,8 +6165,8 @@
           <t>CUTTING BOARD</t>
         </is>
       </c>
-      <c r="F236" s="5" t="n"/>
-      <c r="G236" s="6" t="n"/>
+      <c r="F236" s="7" t="n"/>
+      <c r="G236" s="8" t="n"/>
       <c r="S236" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION RECESSED PART OF ITEM #402</t>
@@ -6168,10 +6174,10 @@
       </c>
     </row>
     <row r="237">
-      <c r="A237" t="n">
+      <c r="A237" s="5" t="n">
         <v>424</v>
       </c>
-      <c r="B237" t="n">
+      <c r="B237" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C237" t="inlineStr">
@@ -6185,19 +6191,19 @@
       <c r="E237" t="n">
         <v>1</v>
       </c>
-      <c r="F237" s="5" t="n">
+      <c r="F237" s="7" t="n">
         <v>5</v>
       </c>
-      <c r="G237" s="6">
+      <c r="G237" s="8">
         <f>IF(E237&gt;1,(1.732*D237*F237)/1000,(D237*F237)/1000)</f>
         <v/>
       </c>
     </row>
     <row r="238">
-      <c r="A238" t="n">
+      <c r="A238" s="5" t="n">
         <v>425</v>
       </c>
-      <c r="B238" t="inlineStr">
+      <c r="B238" s="6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -6207,14 +6213,14 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F238" s="5" t="n"/>
-      <c r="G238" s="6" t="n"/>
+      <c r="F238" s="7" t="n"/>
+      <c r="G238" s="8" t="n"/>
     </row>
     <row r="239">
-      <c r="A239" t="n">
+      <c r="A239" s="5" t="n">
         <v>426</v>
       </c>
-      <c r="B239" t="n">
+      <c r="B239" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C239" t="inlineStr">
@@ -6228,10 +6234,10 @@
       <c r="E239" t="n">
         <v>1</v>
       </c>
-      <c r="F239" s="5" t="n">
+      <c r="F239" s="7" t="n">
         <v>4</v>
       </c>
-      <c r="G239" s="6">
+      <c r="G239" s="8">
         <f>IF(E239&gt;1,(1.732*D239*F239)/1000,(D239*F239)/1000)</f>
         <v/>
       </c>
@@ -6247,10 +6253,10 @@
       </c>
     </row>
     <row r="240">
-      <c r="A240" t="n">
+      <c r="A240" s="5" t="n">
         <v>427</v>
       </c>
-      <c r="B240" t="n">
+      <c r="B240" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C240" t="inlineStr">
@@ -6258,8 +6264,8 @@
           <t>PREPARATION SINK</t>
         </is>
       </c>
-      <c r="F240" s="5" t="n"/>
-      <c r="G240" s="6" t="n"/>
+      <c r="F240" s="7" t="n"/>
+      <c r="G240" s="8" t="n"/>
       <c r="H240" t="inlineStr">
         <is>
           <t>1/2"</t>
@@ -6285,10 +6291,10 @@
       </c>
     </row>
     <row r="241">
-      <c r="A241" t="n">
+      <c r="A241" s="5" t="n">
         <v>428</v>
       </c>
-      <c r="B241" t="n">
+      <c r="B241" s="6" t="n">
         <v>3</v>
       </c>
       <c r="C241" t="inlineStr">
@@ -6302,10 +6308,10 @@
       <c r="E241" t="n">
         <v>1</v>
       </c>
-      <c r="F241" s="5" t="n">
+      <c r="F241" s="7" t="n">
         <v>8</v>
       </c>
-      <c r="G241" s="6">
+      <c r="G241" s="8">
         <f>IF(E241&gt;1,(1.732*D241*F241)/1000,(D241*F241)/1000)</f>
         <v/>
       </c>
@@ -6316,10 +6322,10 @@
       </c>
     </row>
     <row r="242">
-      <c r="A242" t="n">
+      <c r="A242" s="5" t="n">
         <v>429</v>
       </c>
-      <c r="B242" t="inlineStr">
+      <c r="B242" s="6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -6329,16 +6335,16 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F242" s="5" t="n"/>
-      <c r="G242" s="6" t="n"/>
+      <c r="F242" s="7" t="n"/>
+      <c r="G242" s="8" t="n"/>
     </row>
     <row r="243">
-      <c r="A243" t="inlineStr">
+      <c r="A243" s="5" t="inlineStr">
         <is>
           <t>430-500</t>
         </is>
       </c>
-      <c r="B243" t="inlineStr">
+      <c r="B243" s="6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -6348,39 +6354,39 @@
           <t>SPARE NUMBERS</t>
         </is>
       </c>
-      <c r="F243" s="5" t="n"/>
-      <c r="G243" s="6" t="n"/>
+      <c r="F243" s="7" t="n"/>
+      <c r="G243" s="8" t="n"/>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr"/>
     </row>
     <row r="245">
-      <c r="A245" s="7" t="inlineStr">
+      <c r="A245" s="9" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="G245" s="8">
+      <c r="G245" s="10">
         <f>SUM(G7:G244)</f>
         <v/>
       </c>
-      <c r="J245" s="8">
+      <c r="J245" s="10">
         <f>SUM(J7:J244)</f>
         <v/>
       </c>
-      <c r="M245" s="8">
+      <c r="M245" s="10">
         <f>SUM(M7:M244)</f>
         <v/>
       </c>
-      <c r="N245" s="8">
+      <c r="N245" s="10">
         <f>SUM(N7:N244)</f>
         <v/>
       </c>
-      <c r="O245" s="8">
+      <c r="O245" s="10">
         <f>SUM(O7:O244)</f>
         <v/>
       </c>
-      <c r="P245" s="8">
+      <c r="P245" s="10">
         <f>SUM(P7:P244)</f>
         <v/>
       </c>

--- a/Bulk Loads/1123/_PRELIMINARY UTILITY EXPORT - FS_formatted.xlsx
+++ b/Bulk Loads/1123/_PRELIMINARY UTILITY EXPORT - FS_formatted.xlsx
@@ -69,7 +69,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -83,6 +83,9 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
@@ -478,7 +481,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
+    <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A3:S245"/>
   <sheetViews>
@@ -499,6 +502,7 @@
     <col width="10" customWidth="1" min="6" max="6"/>
     <col width="10" customWidth="1" min="7" max="7"/>
     <col width="10" customWidth="1" min="8" max="8"/>
+    <col width="30" customWidth="1" min="19" max="19"/>
   </cols>
   <sheetData>
     <row r="1" ht="30" customHeight="1"/>
@@ -513,7 +517,7 @@
     <row r="4" ht="27" customHeight="1">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>August 29, 2024</t>
+          <t>September 18, 2024</t>
         </is>
       </c>
     </row>
@@ -681,7 +685,7 @@
       <c r="P9" t="n">
         <v>4500</v>
       </c>
-      <c r="S9" t="inlineStr">
+      <c r="S9" s="9" t="inlineStr">
         <is>
           <t>500LBS AIR COOLED</t>
         </is>
@@ -706,7 +710,7 @@
           <t>1"</t>
         </is>
       </c>
-      <c r="S10" t="inlineStr">
+      <c r="S10" s="9" t="inlineStr">
         <is>
           <t>1800LBS</t>
         </is>
@@ -750,7 +754,7 @@
       <c r="P11" t="n">
         <v>8500</v>
       </c>
-      <c r="S11" t="inlineStr">
+      <c r="S11" s="9" t="inlineStr">
         <is>
           <t>980 LBS AIR-COOLED</t>
         </is>
@@ -780,7 +784,7 @@
           <t>1/2"</t>
         </is>
       </c>
-      <c r="S12" t="inlineStr">
+      <c r="S12" s="9" t="inlineStr">
         <is>
           <t>FOR ITEM #101</t>
         </is>
@@ -800,7 +804,7 @@
       </c>
       <c r="F13" s="7" t="n"/>
       <c r="G13" s="8" t="n"/>
-      <c r="S13" t="inlineStr">
+      <c r="S13" s="9" t="inlineStr">
         <is>
           <t>MOBILE 250LBS</t>
         </is>
@@ -830,7 +834,7 @@
           <t>1/2"</t>
         </is>
       </c>
-      <c r="S14" t="inlineStr">
+      <c r="S14" s="9" t="inlineStr">
         <is>
           <t>FOR ITEM #103</t>
         </is>
@@ -850,7 +854,7 @@
       </c>
       <c r="F15" s="7" t="n"/>
       <c r="G15" s="8" t="n"/>
-      <c r="S15" t="inlineStr">
+      <c r="S15" s="9" t="inlineStr">
         <is>
           <t>FIXED FIVE TIER</t>
         </is>
@@ -870,7 +874,7 @@
       </c>
       <c r="F16" s="7" t="n"/>
       <c r="G16" s="8" t="n"/>
-      <c r="S16" t="inlineStr">
+      <c r="S16" s="9" t="inlineStr">
         <is>
           <t>SLIM JIM</t>
         </is>
@@ -892,6 +896,7 @@
       </c>
       <c r="F17" s="7" t="n"/>
       <c r="G17" s="8" t="n"/>
+      <c r="S17" s="9" t="n"/>
     </row>
     <row r="18">
       <c r="A18" s="5" t="n">
@@ -909,6 +914,7 @@
       </c>
       <c r="F18" s="7" t="n"/>
       <c r="G18" s="8" t="n"/>
+      <c r="S18" s="9" t="n"/>
     </row>
     <row r="19">
       <c r="A19" s="5" t="n">
@@ -942,7 +948,7 @@
           <t>1-1/2"</t>
         </is>
       </c>
-      <c r="S19" t="inlineStr">
+      <c r="S19" s="9" t="inlineStr">
         <is>
           <t>WITH VENDOR PROVIDED SOAP &amp; TOWEL DISPENSER</t>
         </is>
@@ -962,7 +968,7 @@
       </c>
       <c r="F20" s="7" t="n"/>
       <c r="G20" s="8" t="n"/>
-      <c r="S20" t="inlineStr">
+      <c r="S20" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -982,7 +988,7 @@
       </c>
       <c r="F21" s="7" t="n"/>
       <c r="G21" s="8" t="n"/>
-      <c r="S21" t="inlineStr">
+      <c r="S21" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -1013,6 +1019,7 @@
         <f>IF(E22&gt;1,(1.732*D22*F22)/1000,(D22*F22)/1000)</f>
         <v/>
       </c>
+      <c r="S22" s="9" t="n"/>
     </row>
     <row r="23">
       <c r="A23" s="5" t="n">
@@ -1030,6 +1037,7 @@
       </c>
       <c r="F23" s="7" t="n"/>
       <c r="G23" s="8" t="n"/>
+      <c r="S23" s="9" t="n"/>
     </row>
     <row r="24">
       <c r="A24" s="5" t="n">
@@ -1045,7 +1053,7 @@
       </c>
       <c r="F24" s="7" t="n"/>
       <c r="G24" s="8" t="n"/>
-      <c r="S24" t="inlineStr">
+      <c r="S24" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION MOBILE</t>
         </is>
@@ -1086,7 +1094,7 @@
           <t>1-1/2"</t>
         </is>
       </c>
-      <c r="S25" t="inlineStr">
+      <c r="S25" s="9" t="inlineStr">
         <is>
           <t>VENTLESS</t>
         </is>
@@ -1108,6 +1116,7 @@
       </c>
       <c r="F26" s="7" t="n"/>
       <c r="G26" s="8" t="n"/>
+      <c r="S26" s="9" t="n"/>
     </row>
     <row r="27">
       <c r="A27" s="5" t="n">
@@ -1125,6 +1134,7 @@
       </c>
       <c r="F27" s="7" t="n"/>
       <c r="G27" s="8" t="n"/>
+      <c r="S27" s="9" t="n"/>
     </row>
     <row r="28">
       <c r="A28" s="5" t="n">
@@ -1142,6 +1152,7 @@
       </c>
       <c r="F28" s="7" t="n"/>
       <c r="G28" s="8" t="n"/>
+      <c r="S28" s="9" t="n"/>
     </row>
     <row r="29">
       <c r="A29" s="5" t="n">
@@ -1159,6 +1170,7 @@
       </c>
       <c r="F29" s="7" t="n"/>
       <c r="G29" s="8" t="n"/>
+      <c r="S29" s="9" t="n"/>
     </row>
     <row r="30">
       <c r="A30" s="5" t="n">
@@ -1185,7 +1197,7 @@
         <f>IF(E30&gt;1,(1.732*D30*F30)/1000,(D30*F30)/1000)</f>
         <v/>
       </c>
-      <c r="S30" t="inlineStr">
+      <c r="S30" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -1207,6 +1219,7 @@
       </c>
       <c r="F31" s="7" t="n"/>
       <c r="G31" s="8" t="n"/>
+      <c r="S31" s="9" t="n"/>
     </row>
     <row r="32">
       <c r="A32" s="5" t="n">
@@ -1233,7 +1246,7 @@
         <f>IF(E32&gt;1,(1.732*D32*F32)/1000,(D32*F32)/1000)</f>
         <v/>
       </c>
-      <c r="S32" t="inlineStr">
+      <c r="S32" s="9" t="inlineStr">
         <is>
           <t>2 RING</t>
         </is>
@@ -1255,6 +1268,7 @@
       </c>
       <c r="F33" s="7" t="n"/>
       <c r="G33" s="8" t="n"/>
+      <c r="S33" s="9" t="n"/>
     </row>
     <row r="34">
       <c r="A34" s="5" t="n">
@@ -1270,7 +1284,7 @@
       </c>
       <c r="F34" s="7" t="n"/>
       <c r="G34" s="8" t="n"/>
-      <c r="S34" t="inlineStr">
+      <c r="S34" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -1301,7 +1315,7 @@
         <f>IF(E35&gt;1,(1.732*D35*F35)/1000,(D35*F35)/1000)</f>
         <v/>
       </c>
-      <c r="S35" t="inlineStr">
+      <c r="S35" s="9" t="inlineStr">
         <is>
           <t>STORED UNDERCOUNTER</t>
         </is>
@@ -1332,7 +1346,7 @@
         <f>IF(E36&gt;1,(1.732*D36*F36)/1000,(D36*F36)/1000)</f>
         <v/>
       </c>
-      <c r="S36" t="inlineStr">
+      <c r="S36" s="9" t="inlineStr">
         <is>
           <t>STORED UNDERCOUNTER</t>
         </is>
@@ -1354,6 +1368,7 @@
       </c>
       <c r="F37" s="7" t="n"/>
       <c r="G37" s="8" t="n"/>
+      <c r="S37" s="9" t="n"/>
     </row>
     <row r="38">
       <c r="A38" s="5" t="n">
@@ -1371,6 +1386,7 @@
       </c>
       <c r="F38" s="7" t="n"/>
       <c r="G38" s="8" t="n"/>
+      <c r="S38" s="9" t="n"/>
     </row>
     <row r="39">
       <c r="A39" s="5" t="n">
@@ -1397,7 +1413,7 @@
         <f>IF(E39&gt;1,(1.732*D39*F39)/1000,(D39*F39)/1000)</f>
         <v/>
       </c>
-      <c r="S39" t="inlineStr">
+      <c r="S39" s="9" t="inlineStr">
         <is>
           <t>STORED UNDERCOUNTER</t>
         </is>
@@ -1428,7 +1444,7 @@
         <f>IF(E40&gt;1,(1.732*D40*F40)/1000,(D40*F40)/1000)</f>
         <v/>
       </c>
-      <c r="S40" t="inlineStr">
+      <c r="S40" s="9" t="inlineStr">
         <is>
           <t>BY OS&amp;E</t>
         </is>
@@ -1448,7 +1464,7 @@
       </c>
       <c r="F41" s="7" t="n"/>
       <c r="G41" s="8" t="n"/>
-      <c r="S41" t="inlineStr">
+      <c r="S41" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -1497,7 +1513,7 @@
           <t>(2)1-1/2"</t>
         </is>
       </c>
-      <c r="S42" t="inlineStr">
+      <c r="S42" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -1519,6 +1535,7 @@
       </c>
       <c r="F43" s="7" t="n"/>
       <c r="G43" s="8" t="n"/>
+      <c r="S43" s="9" t="n"/>
     </row>
     <row r="44">
       <c r="A44" s="5" t="n">
@@ -1534,7 +1551,7 @@
       </c>
       <c r="F44" s="7" t="n"/>
       <c r="G44" s="8" t="n"/>
-      <c r="S44" t="inlineStr">
+      <c r="S44" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -1554,7 +1571,7 @@
       </c>
       <c r="F45" s="7" t="n"/>
       <c r="G45" s="8" t="n"/>
-      <c r="S45" t="inlineStr">
+      <c r="S45" s="9" t="inlineStr">
         <is>
           <t>WITH LID AND DOLLY</t>
         </is>
@@ -1585,6 +1602,7 @@
         <f>IF(E46&gt;1,(1.732*D46*F46)/1000,(D46*F46)/1000)</f>
         <v/>
       </c>
+      <c r="S46" s="9" t="n"/>
     </row>
     <row r="47">
       <c r="A47" s="5" t="n">
@@ -1602,6 +1620,7 @@
       </c>
       <c r="F47" s="7" t="n"/>
       <c r="G47" s="8" t="n"/>
+      <c r="S47" s="9" t="n"/>
     </row>
     <row r="48">
       <c r="A48" s="5" t="n">
@@ -1619,6 +1638,7 @@
       </c>
       <c r="F48" s="7" t="n"/>
       <c r="G48" s="8" t="n"/>
+      <c r="S48" s="9" t="n"/>
     </row>
     <row r="49">
       <c r="A49" s="5" t="n">
@@ -1645,6 +1665,7 @@
         <f>IF(E49&gt;1,(1.732*D49*F49)/1000,(D49*F49)/1000)</f>
         <v/>
       </c>
+      <c r="S49" s="9" t="n"/>
     </row>
     <row r="50">
       <c r="A50" s="5" t="n">
@@ -1676,7 +1697,7 @@
           <t>1"</t>
         </is>
       </c>
-      <c r="S50" t="inlineStr">
+      <c r="S50" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION WITH DRAWER PART OF ITEM#134</t>
         </is>
@@ -1701,7 +1722,7 @@
           <t>1-1/2" EA</t>
         </is>
       </c>
-      <c r="S51" t="inlineStr">
+      <c r="S51" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION PART OF ITEM #134</t>
         </is>
@@ -1739,7 +1760,7 @@
           <t>1-1/2"</t>
         </is>
       </c>
-      <c r="S52" t="inlineStr">
+      <c r="S52" s="9" t="inlineStr">
         <is>
           <t>WITH VENDOR PROVIDED SOAP &amp; TOWEL DISPENSER</t>
         </is>
@@ -1772,7 +1793,7 @@
       <c r="J53" t="n">
         <v>50</v>
       </c>
-      <c r="S53" t="inlineStr">
+      <c r="S53" s="9" t="inlineStr">
         <is>
           <t>WITH FAUCET</t>
         </is>
@@ -1792,7 +1813,7 @@
       </c>
       <c r="F54" s="7" t="n"/>
       <c r="G54" s="8" t="n"/>
-      <c r="S54" t="inlineStr">
+      <c r="S54" s="9" t="inlineStr">
         <is>
           <t>SLIM JIM</t>
         </is>
@@ -1814,6 +1835,7 @@
       </c>
       <c r="F55" s="7" t="n"/>
       <c r="G55" s="8" t="n"/>
+      <c r="S55" s="9" t="n"/>
     </row>
     <row r="56">
       <c r="A56" s="5" t="n">
@@ -1831,6 +1853,7 @@
       </c>
       <c r="F56" s="7" t="n"/>
       <c r="G56" s="8" t="n"/>
+      <c r="S56" s="9" t="n"/>
     </row>
     <row r="57">
       <c r="A57" s="5" t="n">
@@ -1848,6 +1871,7 @@
       </c>
       <c r="F57" s="7" t="n"/>
       <c r="G57" s="8" t="n"/>
+      <c r="S57" s="9" t="n"/>
     </row>
     <row r="58">
       <c r="A58" s="5" t="n">
@@ -1865,6 +1889,7 @@
       </c>
       <c r="F58" s="7" t="n"/>
       <c r="G58" s="8" t="n"/>
+      <c r="S58" s="9" t="n"/>
     </row>
     <row r="59">
       <c r="A59" s="3" t="inlineStr">
@@ -1918,7 +1943,7 @@
         <f>IF(E60&gt;1,(1.732*D60*F60)/1000,(D60*F60)/1000)</f>
         <v/>
       </c>
-      <c r="S60" t="inlineStr">
+      <c r="S60" s="9" t="inlineStr">
         <is>
           <t>FOR ITEM #178</t>
         </is>
@@ -1951,7 +1976,7 @@
         <f>IF(E61&gt;1,(1.732*D61*F61)/1000,(D61*F61)/1000)</f>
         <v/>
       </c>
-      <c r="S61" t="inlineStr">
+      <c r="S61" s="9" t="inlineStr">
         <is>
           <t>FOR ITEM #178</t>
         </is>
@@ -1973,6 +1998,7 @@
       </c>
       <c r="F62" s="7" t="n"/>
       <c r="G62" s="8" t="n"/>
+      <c r="S62" s="9" t="n"/>
     </row>
     <row r="63">
       <c r="A63" s="5" t="n">
@@ -1990,6 +2016,7 @@
       </c>
       <c r="F63" s="7" t="n"/>
       <c r="G63" s="8" t="n"/>
+      <c r="S63" s="9" t="n"/>
     </row>
     <row r="64">
       <c r="A64" s="5" t="n">
@@ -2021,7 +2048,7 @@
           <t>1"</t>
         </is>
       </c>
-      <c r="S64" t="inlineStr">
+      <c r="S64" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION WITH DRAWERS PART OF ITEM#157</t>
         </is>
@@ -2043,6 +2070,7 @@
       </c>
       <c r="F65" s="7" t="n"/>
       <c r="G65" s="8" t="n"/>
+      <c r="S65" s="9" t="n"/>
     </row>
     <row r="66">
       <c r="A66" s="5" t="n">
@@ -2069,6 +2097,7 @@
         <f>IF(E66&gt;1,(1.732*D66*F66)/1000,(D66*F66)/1000)</f>
         <v/>
       </c>
+      <c r="S66" s="9" t="n"/>
     </row>
     <row r="67">
       <c r="A67" s="5" t="n">
@@ -2113,7 +2142,7 @@
           <t>1-1/2"</t>
         </is>
       </c>
-      <c r="S67" t="inlineStr">
+      <c r="S67" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -2133,7 +2162,7 @@
       </c>
       <c r="F68" s="7" t="n"/>
       <c r="G68" s="8" t="n"/>
-      <c r="S68" t="inlineStr">
+      <c r="S68" s="9" t="inlineStr">
         <is>
           <t>WITH CABINET BASE MOBILE</t>
         </is>
@@ -2155,6 +2184,7 @@
       </c>
       <c r="F69" s="7" t="n"/>
       <c r="G69" s="8" t="n"/>
+      <c r="S69" s="9" t="n"/>
     </row>
     <row r="70">
       <c r="A70" s="5" t="n">
@@ -2172,6 +2202,7 @@
       </c>
       <c r="F70" s="7" t="n"/>
       <c r="G70" s="8" t="n"/>
+      <c r="S70" s="9" t="n"/>
     </row>
     <row r="71">
       <c r="A71" s="5" t="n">
@@ -2198,6 +2229,7 @@
         <f>IF(E71&gt;1,(1.732*D71*F71)/1000,(D71*F71)/1000)</f>
         <v/>
       </c>
+      <c r="S71" s="9" t="n"/>
     </row>
     <row r="72">
       <c r="A72" s="5" t="n">
@@ -2227,6 +2259,7 @@
       <c r="M72" t="n">
         <v>55000</v>
       </c>
+      <c r="S72" s="9" t="n"/>
     </row>
     <row r="73">
       <c r="A73" s="5" t="n">
@@ -2245,6 +2278,7 @@
       <c r="M73" t="n">
         <v>120000</v>
       </c>
+      <c r="S73" s="9" t="n"/>
     </row>
     <row r="74">
       <c r="A74" s="5" t="n">
@@ -2271,7 +2305,7 @@
         <f>IF(E74&gt;1,(1.732*D74*F74)/1000,(D74*F74)/1000)</f>
         <v/>
       </c>
-      <c r="S74" t="inlineStr">
+      <c r="S74" s="9" t="inlineStr">
         <is>
           <t>MOBILE</t>
         </is>
@@ -2293,6 +2327,7 @@
       </c>
       <c r="F75" s="7" t="n"/>
       <c r="G75" s="8" t="n"/>
+      <c r="S75" s="9" t="n"/>
     </row>
     <row r="76">
       <c r="A76" s="5" t="n">
@@ -2311,7 +2346,7 @@
       <c r="M76" t="n">
         <v>20000</v>
       </c>
-      <c r="S76" t="inlineStr">
+      <c r="S76" s="9" t="inlineStr">
         <is>
           <t>WALL MOUNTED</t>
         </is>
@@ -2334,7 +2369,7 @@
       <c r="M77" t="n">
         <v>210000</v>
       </c>
-      <c r="S77" t="inlineStr">
+      <c r="S77" s="9" t="inlineStr">
         <is>
           <t>MODULAR</t>
         </is>
@@ -2367,6 +2402,7 @@
       <c r="J78" t="n">
         <v>30</v>
       </c>
+      <c r="S78" s="9" t="n"/>
     </row>
     <row r="79">
       <c r="A79" s="5" t="n">
@@ -2393,7 +2429,7 @@
         <f>IF(E79&gt;1,(1.732*D79*F79)/1000,(D79*F79)/1000)</f>
         <v/>
       </c>
-      <c r="S79" t="inlineStr">
+      <c r="S79" s="9" t="inlineStr">
         <is>
           <t>MOBILE</t>
         </is>
@@ -2415,6 +2451,7 @@
       </c>
       <c r="F80" s="7" t="n"/>
       <c r="G80" s="8" t="n"/>
+      <c r="S80" s="9" t="n"/>
     </row>
     <row r="81">
       <c r="A81" s="5" t="n">
@@ -2443,7 +2480,7 @@
       <c r="M81" t="n">
         <v>80000</v>
       </c>
-      <c r="S81" t="inlineStr">
+      <c r="S81" s="9" t="inlineStr">
         <is>
           <t>MOBILE</t>
         </is>
@@ -2463,7 +2500,7 @@
       </c>
       <c r="F82" s="7" t="n"/>
       <c r="G82" s="8" t="n"/>
-      <c r="S82" t="inlineStr">
+      <c r="S82" s="9" t="inlineStr">
         <is>
           <t>WITH CABINET BASE MOBILE</t>
         </is>
@@ -2486,7 +2523,7 @@
       <c r="M83" t="n">
         <v>100000</v>
       </c>
-      <c r="S83" t="inlineStr">
+      <c r="S83" s="9" t="inlineStr">
         <is>
           <t>MOBILE</t>
         </is>
@@ -2517,7 +2554,7 @@
         <f>IF(E84&gt;1,(1.732*D84*F84)/1000,(D84*F84)/1000)</f>
         <v/>
       </c>
-      <c r="S84" t="inlineStr">
+      <c r="S84" s="9" t="inlineStr">
         <is>
           <t>FOR ITEM #178</t>
         </is>
@@ -2539,6 +2576,7 @@
       </c>
       <c r="F85" s="7" t="n"/>
       <c r="G85" s="8" t="n"/>
+      <c r="S85" s="9" t="n"/>
     </row>
     <row r="86">
       <c r="A86" s="5" t="n">
@@ -2554,7 +2592,7 @@
       </c>
       <c r="F86" s="7" t="n"/>
       <c r="G86" s="8" t="n"/>
-      <c r="S86" t="inlineStr">
+      <c r="S86" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -2585,7 +2623,7 @@
         <f>IF(E87&gt;1,(1.732*D87*F87)/1000,(D87*F87)/1000)</f>
         <v/>
       </c>
-      <c r="S87" t="inlineStr">
+      <c r="S87" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -2622,7 +2660,7 @@
       <c r="O88" t="n">
         <v>1586</v>
       </c>
-      <c r="S88" t="inlineStr">
+      <c r="S88" s="9" t="inlineStr">
         <is>
           <t>WITH MAKE-UP AIR</t>
         </is>
@@ -2644,6 +2682,7 @@
       </c>
       <c r="F89" s="7" t="n"/>
       <c r="G89" s="8" t="n"/>
+      <c r="S89" s="9" t="n"/>
     </row>
     <row r="90">
       <c r="A90" s="5" t="n">
@@ -2661,6 +2700,7 @@
       </c>
       <c r="F90" s="7" t="n"/>
       <c r="G90" s="8" t="n"/>
+      <c r="S90" s="9" t="n"/>
     </row>
     <row r="91">
       <c r="A91" s="5" t="n">
@@ -2705,7 +2745,7 @@
           <t>1-1/2"</t>
         </is>
       </c>
-      <c r="S91" t="inlineStr">
+      <c r="S91" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -2743,7 +2783,7 @@
           <t>1-1/2"</t>
         </is>
       </c>
-      <c r="S92" t="inlineStr">
+      <c r="S92" s="9" t="inlineStr">
         <is>
           <t>WITH SOAP &amp; TOWEL DISPENSER</t>
         </is>
@@ -2763,7 +2803,7 @@
       </c>
       <c r="F93" s="7" t="n"/>
       <c r="G93" s="8" t="n"/>
-      <c r="S93" t="inlineStr">
+      <c r="S93" s="9" t="inlineStr">
         <is>
           <t>SLIM JIM</t>
         </is>
@@ -2783,7 +2823,7 @@
       </c>
       <c r="F94" s="7" t="n"/>
       <c r="G94" s="8" t="n"/>
-      <c r="S94" t="inlineStr">
+      <c r="S94" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION PART OF ITEM #181</t>
         </is>
@@ -2805,6 +2845,7 @@
       </c>
       <c r="F95" s="7" t="n"/>
       <c r="G95" s="8" t="n"/>
+      <c r="S95" s="9" t="n"/>
     </row>
     <row r="96">
       <c r="A96" s="5" t="n">
@@ -2836,7 +2877,7 @@
           <t>1"</t>
         </is>
       </c>
-      <c r="S96" t="inlineStr">
+      <c r="S96" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION WITH DRAWERS CUTTING BOARD AND NSF7 RAIL PART OF ITEM#181</t>
         </is>
@@ -2872,7 +2913,7 @@
           <t>1"</t>
         </is>
       </c>
-      <c r="S97" t="inlineStr">
+      <c r="S97" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION WITH DRAWERS CUTTING BOARD AND NSF7 RAIL PART OF ITEM#181</t>
         </is>
@@ -2908,7 +2949,7 @@
           <t>1"</t>
         </is>
       </c>
-      <c r="S98" t="inlineStr">
+      <c r="S98" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION WITH DRAWERS CUTTING BOARD AND NSF7 RAIL PART OF ITEM#181</t>
         </is>
@@ -2930,6 +2971,7 @@
       </c>
       <c r="F99" s="7" t="n"/>
       <c r="G99" s="8" t="n"/>
+      <c r="S99" s="9" t="n"/>
     </row>
     <row r="100">
       <c r="A100" s="5" t="n">
@@ -2947,6 +2989,7 @@
       </c>
       <c r="F100" s="7" t="n"/>
       <c r="G100" s="8" t="n"/>
+      <c r="S100" s="9" t="n"/>
     </row>
     <row r="101">
       <c r="A101" s="5" t="n">
@@ -2978,7 +3021,7 @@
           <t>1"</t>
         </is>
       </c>
-      <c r="S101" t="inlineStr">
+      <c r="S101" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION WITH DRAWERS CUTTING BOARD AND NSF7 RAIL PART OF ITEM#181</t>
         </is>
@@ -2998,7 +3041,7 @@
       </c>
       <c r="F102" s="7" t="n"/>
       <c r="G102" s="8" t="n"/>
-      <c r="S102" t="inlineStr">
+      <c r="S102" s="9" t="inlineStr">
         <is>
           <t>SLIM JIM</t>
         </is>
@@ -3018,7 +3061,7 @@
       </c>
       <c r="F103" s="7" t="n"/>
       <c r="G103" s="8" t="n"/>
-      <c r="S103" t="inlineStr">
+      <c r="S103" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION PART OF ITEM #181</t>
         </is>
@@ -3056,7 +3099,7 @@
           <t>1-1/2"</t>
         </is>
       </c>
-      <c r="S104" t="inlineStr">
+      <c r="S104" s="9" t="inlineStr">
         <is>
           <t>WITH SOAP &amp; TOWEL DISPENSER</t>
         </is>
@@ -3078,6 +3121,7 @@
       </c>
       <c r="F105" s="7" t="n"/>
       <c r="G105" s="8" t="n"/>
+      <c r="S105" s="9" t="n"/>
     </row>
     <row r="106">
       <c r="A106" s="5" t="n">
@@ -3093,7 +3137,7 @@
       </c>
       <c r="F106" s="7" t="n"/>
       <c r="G106" s="8" t="n"/>
-      <c r="S106" t="inlineStr">
+      <c r="S106" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -3113,7 +3157,7 @@
       </c>
       <c r="F107" s="7" t="n"/>
       <c r="G107" s="8" t="n"/>
-      <c r="S107" t="inlineStr">
+      <c r="S107" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -3133,7 +3177,7 @@
       </c>
       <c r="F108" s="7" t="n"/>
       <c r="G108" s="8" t="n"/>
-      <c r="S108" t="inlineStr">
+      <c r="S108" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -3155,6 +3199,7 @@
       </c>
       <c r="F109" s="7" t="n"/>
       <c r="G109" s="8" t="n"/>
+      <c r="S109" s="9" t="n"/>
     </row>
     <row r="110">
       <c r="A110" s="5" t="n">
@@ -3172,6 +3217,7 @@
       </c>
       <c r="F110" s="7" t="n"/>
       <c r="G110" s="8" t="n"/>
+      <c r="S110" s="9" t="n"/>
     </row>
     <row r="111">
       <c r="A111" s="5" t="n">
@@ -3198,6 +3244,7 @@
         <f>IF(E111&gt;1,(1.732*D111*F111)/1000,(D111*F111)/1000)</f>
         <v/>
       </c>
+      <c r="S111" s="9" t="n"/>
     </row>
     <row r="112">
       <c r="A112" s="5" t="n">
@@ -3213,7 +3260,7 @@
       </c>
       <c r="F112" s="7" t="n"/>
       <c r="G112" s="8" t="n"/>
-      <c r="S112" t="inlineStr">
+      <c r="S112" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -3233,7 +3280,7 @@
       </c>
       <c r="F113" s="7" t="n"/>
       <c r="G113" s="8" t="n"/>
-      <c r="S113" t="inlineStr">
+      <c r="S113" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -3264,6 +3311,7 @@
         <f>IF(E114&gt;1,(1.732*D114*F114)/1000,(D114*F114)/1000)</f>
         <v/>
       </c>
+      <c r="S114" s="9" t="n"/>
     </row>
     <row r="115">
       <c r="A115" s="5" t="inlineStr">
@@ -3283,6 +3331,7 @@
       </c>
       <c r="F115" s="7" t="n"/>
       <c r="G115" s="8" t="n"/>
+      <c r="S115" s="9" t="n"/>
     </row>
     <row r="116">
       <c r="A116" s="3" t="inlineStr">
@@ -3334,7 +3383,7 @@
         <f>IF(E117&gt;1,(1.732*D117*F117)/1000,(D117*F117)/1000)</f>
         <v/>
       </c>
-      <c r="S117" t="inlineStr">
+      <c r="S117" s="9" t="inlineStr">
         <is>
           <t>MOBILE</t>
         </is>
@@ -3372,6 +3421,7 @@
           <t>2"</t>
         </is>
       </c>
+      <c r="S118" s="9" t="n"/>
     </row>
     <row r="119">
       <c r="A119" s="5" t="n">
@@ -3387,7 +3437,7 @@
       </c>
       <c r="F119" s="7" t="n"/>
       <c r="G119" s="8" t="n"/>
-      <c r="S119" t="inlineStr">
+      <c r="S119" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -3431,7 +3481,7 @@
           <t>1-1/2"</t>
         </is>
       </c>
-      <c r="S120" t="inlineStr">
+      <c r="S120" s="9" t="inlineStr">
         <is>
           <t>180°F RINSE</t>
         </is>
@@ -3453,6 +3503,7 @@
       </c>
       <c r="F121" s="7" t="n"/>
       <c r="G121" s="8" t="n"/>
+      <c r="S121" s="9" t="n"/>
     </row>
     <row r="122">
       <c r="A122" s="5" t="n">
@@ -3468,7 +3519,7 @@
       </c>
       <c r="F122" s="7" t="n"/>
       <c r="G122" s="8" t="n"/>
-      <c r="S122" t="inlineStr">
+      <c r="S122" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION WALL MOUNTED</t>
         </is>
@@ -3512,7 +3563,7 @@
           <t>1-1/2"</t>
         </is>
       </c>
-      <c r="S123" t="inlineStr">
+      <c r="S123" s="9" t="inlineStr">
         <is>
           <t>180°F RINSE</t>
         </is>
@@ -3545,7 +3596,7 @@
       <c r="J124" t="n">
         <v>25</v>
       </c>
-      <c r="S124" t="inlineStr">
+      <c r="S124" s="9" t="inlineStr">
         <is>
           <t>FOR ITEM #331</t>
         </is>
@@ -3567,6 +3618,7 @@
       </c>
       <c r="F125" s="7" t="n"/>
       <c r="G125" s="8" t="n"/>
+      <c r="S125" s="9" t="n"/>
     </row>
     <row r="126">
       <c r="A126" s="5" t="n">
@@ -3584,6 +3636,7 @@
       </c>
       <c r="F126" s="7" t="n"/>
       <c r="G126" s="8" t="n"/>
+      <c r="S126" s="9" t="n"/>
     </row>
     <row r="127">
       <c r="A127" s="5" t="n">
@@ -3612,7 +3665,7 @@
       <c r="J127" t="n">
         <v>25</v>
       </c>
-      <c r="S127" t="inlineStr">
+      <c r="S127" s="9" t="inlineStr">
         <is>
           <t>FOR ITEM #314</t>
         </is>
@@ -3632,7 +3685,7 @@
       </c>
       <c r="F128" s="7" t="n"/>
       <c r="G128" s="8" t="n"/>
-      <c r="S128" t="inlineStr">
+      <c r="S128" s="9" t="inlineStr">
         <is>
           <t>WITH LID AND DOLLY</t>
         </is>
@@ -3657,7 +3710,7 @@
           <t>2"</t>
         </is>
       </c>
-      <c r="S129" t="inlineStr">
+      <c r="S129" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -3677,7 +3730,7 @@
       </c>
       <c r="F130" s="7" t="n"/>
       <c r="G130" s="8" t="n"/>
-      <c r="S130" t="inlineStr">
+      <c r="S130" s="9" t="inlineStr">
         <is>
           <t>CEILING MOUNT</t>
         </is>
@@ -3699,6 +3752,7 @@
       </c>
       <c r="F131" s="7" t="n"/>
       <c r="G131" s="8" t="n"/>
+      <c r="S131" s="9" t="n"/>
     </row>
     <row r="132">
       <c r="A132" s="5" t="n">
@@ -3714,7 +3768,7 @@
       </c>
       <c r="F132" s="7" t="n"/>
       <c r="G132" s="8" t="n"/>
-      <c r="S132" t="inlineStr">
+      <c r="S132" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -3736,6 +3790,7 @@
       </c>
       <c r="F133" s="7" t="n"/>
       <c r="G133" s="8" t="n"/>
+      <c r="S133" s="9" t="n"/>
     </row>
     <row r="134">
       <c r="A134" s="5" t="n">
@@ -3753,6 +3808,7 @@
       </c>
       <c r="F134" s="7" t="n"/>
       <c r="G134" s="8" t="n"/>
+      <c r="S134" s="9" t="n"/>
     </row>
     <row r="135">
       <c r="A135" s="5" t="n">
@@ -3770,6 +3826,7 @@
       </c>
       <c r="F135" s="7" t="n"/>
       <c r="G135" s="8" t="n"/>
+      <c r="S135" s="9" t="n"/>
     </row>
     <row r="136">
       <c r="A136" s="5" t="n">
@@ -3787,6 +3844,7 @@
       </c>
       <c r="F136" s="7" t="n"/>
       <c r="G136" s="8" t="n"/>
+      <c r="S136" s="9" t="n"/>
     </row>
     <row r="137">
       <c r="A137" s="5" t="n">
@@ -3820,7 +3878,7 @@
           <t>(3)2"</t>
         </is>
       </c>
-      <c r="S137" t="inlineStr">
+      <c r="S137" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -3858,7 +3916,7 @@
           <t>1-1/2"</t>
         </is>
       </c>
-      <c r="S138" t="inlineStr">
+      <c r="S138" s="9" t="inlineStr">
         <is>
           <t>WITH VENDOR PROVIDED SOAP &amp; TOWEL DISPENSER</t>
         </is>
@@ -3878,7 +3936,7 @@
       </c>
       <c r="F139" s="7" t="n"/>
       <c r="G139" s="8" t="n"/>
-      <c r="S139" t="inlineStr">
+      <c r="S139" s="9" t="inlineStr">
         <is>
           <t>SLIM JIM</t>
         </is>
@@ -3898,7 +3956,7 @@
       </c>
       <c r="F140" s="7" t="n"/>
       <c r="G140" s="8" t="n"/>
-      <c r="S140" t="inlineStr">
+      <c r="S140" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -3920,6 +3978,7 @@
       </c>
       <c r="F141" s="7" t="n"/>
       <c r="G141" s="8" t="n"/>
+      <c r="S141" s="9" t="n"/>
     </row>
     <row r="142">
       <c r="A142" s="5" t="n">
@@ -3959,7 +4018,7 @@
           <t>1-1/2"</t>
         </is>
       </c>
-      <c r="S142" t="inlineStr">
+      <c r="S142" s="9" t="inlineStr">
         <is>
           <t>180°F RINSE</t>
         </is>
@@ -3979,7 +4038,7 @@
       </c>
       <c r="F143" s="7" t="n"/>
       <c r="G143" s="8" t="n"/>
-      <c r="S143" t="inlineStr">
+      <c r="S143" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION WALL MOUNTED</t>
         </is>
@@ -4004,7 +4063,7 @@
           <t>2"</t>
         </is>
       </c>
-      <c r="S144" t="inlineStr">
+      <c r="S144" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -4026,6 +4085,7 @@
       </c>
       <c r="F145" s="7" t="n"/>
       <c r="G145" s="8" t="n"/>
+      <c r="S145" s="9" t="n"/>
     </row>
     <row r="146">
       <c r="A146" s="5" t="n">
@@ -4043,6 +4103,7 @@
       </c>
       <c r="F146" s="7" t="n"/>
       <c r="G146" s="8" t="n"/>
+      <c r="S146" s="9" t="n"/>
     </row>
     <row r="147">
       <c r="A147" s="5" t="n">
@@ -4058,7 +4119,7 @@
       </c>
       <c r="F147" s="7" t="n"/>
       <c r="G147" s="8" t="n"/>
-      <c r="S147" t="inlineStr">
+      <c r="S147" s="9" t="inlineStr">
         <is>
           <t>CEILING MOUNT</t>
         </is>
@@ -4110,7 +4171,7 @@
       <c r="P148" t="n">
         <v>4000</v>
       </c>
-      <c r="S148" t="inlineStr">
+      <c r="S148" s="9" t="inlineStr">
         <is>
           <t>180°F RINSE VENTLESS</t>
         </is>
@@ -4130,7 +4191,7 @@
       </c>
       <c r="F149" s="7" t="n"/>
       <c r="G149" s="8" t="n"/>
-      <c r="S149" t="inlineStr">
+      <c r="S149" s="9" t="inlineStr">
         <is>
           <t>WITH LID AND DOLLY</t>
         </is>
@@ -4150,7 +4211,7 @@
       </c>
       <c r="F150" s="7" t="n"/>
       <c r="G150" s="8" t="n"/>
-      <c r="S150" t="inlineStr">
+      <c r="S150" s="9" t="inlineStr">
         <is>
           <t>MOBILE</t>
         </is>
@@ -4172,6 +4233,7 @@
       </c>
       <c r="F151" s="7" t="n"/>
       <c r="G151" s="8" t="n"/>
+      <c r="S151" s="9" t="n"/>
     </row>
     <row r="152">
       <c r="A152" s="5" t="n">
@@ -4187,7 +4249,7 @@
       </c>
       <c r="F152" s="7" t="n"/>
       <c r="G152" s="8" t="n"/>
-      <c r="S152" t="inlineStr">
+      <c r="S152" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION PART OF ITEM #341</t>
         </is>
@@ -4209,6 +4271,7 @@
       </c>
       <c r="F153" s="7" t="n"/>
       <c r="G153" s="8" t="n"/>
+      <c r="S153" s="9" t="n"/>
     </row>
     <row r="154">
       <c r="A154" s="5" t="n">
@@ -4253,7 +4316,7 @@
           <t>2"</t>
         </is>
       </c>
-      <c r="S154" t="inlineStr">
+      <c r="S154" s="9" t="inlineStr">
         <is>
           <t>WITH COVER</t>
         </is>
@@ -4275,6 +4338,7 @@
       </c>
       <c r="F155" s="7" t="n"/>
       <c r="G155" s="8" t="n"/>
+      <c r="S155" s="9" t="n"/>
     </row>
     <row r="156">
       <c r="A156" s="5" t="n">
@@ -4292,6 +4356,7 @@
       </c>
       <c r="F156" s="7" t="n"/>
       <c r="G156" s="8" t="n"/>
+      <c r="S156" s="9" t="n"/>
     </row>
     <row r="157">
       <c r="A157" s="5" t="n">
@@ -4307,7 +4372,7 @@
       </c>
       <c r="F157" s="7" t="n"/>
       <c r="G157" s="8" t="n"/>
-      <c r="S157" t="inlineStr">
+      <c r="S157" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION WITH TROUGH AND BRIDGE</t>
         </is>
@@ -4327,7 +4392,7 @@
       </c>
       <c r="F158" s="7" t="n"/>
       <c r="G158" s="8" t="n"/>
-      <c r="S158" t="inlineStr">
+      <c r="S158" s="9" t="inlineStr">
         <is>
           <t>MOBILE FOUR TIER</t>
         </is>
@@ -4347,7 +4412,7 @@
       </c>
       <c r="F159" s="7" t="n"/>
       <c r="G159" s="8" t="n"/>
-      <c r="S159" t="inlineStr">
+      <c r="S159" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -4367,7 +4432,7 @@
       </c>
       <c r="F160" s="7" t="n"/>
       <c r="G160" s="8" t="n"/>
-      <c r="S160" t="inlineStr">
+      <c r="S160" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -4391,6 +4456,7 @@
       </c>
       <c r="F161" s="7" t="n"/>
       <c r="G161" s="8" t="n"/>
+      <c r="S161" s="9" t="n"/>
     </row>
     <row r="162">
       <c r="A162" s="3" t="inlineStr">
@@ -4442,7 +4508,7 @@
         <f>IF(E163&gt;1,(1.732*D163*F163)/1000,(D163*F163)/1000)</f>
         <v/>
       </c>
-      <c r="S163" t="inlineStr">
+      <c r="S163" s="9" t="inlineStr">
         <is>
           <t>BY OS&amp;E</t>
         </is>
@@ -4462,7 +4528,7 @@
       </c>
       <c r="F164" s="7" t="n"/>
       <c r="G164" s="8" t="n"/>
-      <c r="S164" t="inlineStr">
+      <c r="S164" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -4511,7 +4577,7 @@
           <t>1-1/2"</t>
         </is>
       </c>
-      <c r="S165" t="inlineStr">
+      <c r="S165" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -4531,7 +4597,7 @@
       </c>
       <c r="F166" s="7" t="n"/>
       <c r="G166" s="8" t="n"/>
-      <c r="S166" t="inlineStr">
+      <c r="S166" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION PART OF ITEM #353</t>
         </is>
@@ -4553,6 +4619,7 @@
       </c>
       <c r="F167" s="7" t="n"/>
       <c r="G167" s="8" t="n"/>
+      <c r="S167" s="9" t="n"/>
     </row>
     <row r="168">
       <c r="A168" s="5" t="n">
@@ -4573,7 +4640,7 @@
           <t>1"</t>
         </is>
       </c>
-      <c r="S168" t="inlineStr">
+      <c r="S168" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION PART OF #353</t>
         </is>
@@ -4609,7 +4676,7 @@
           <t>1"</t>
         </is>
       </c>
-      <c r="S169" t="inlineStr">
+      <c r="S169" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION PART OF #353</t>
         </is>
@@ -4650,6 +4717,7 @@
           <t>1-1/4"</t>
         </is>
       </c>
+      <c r="S170" s="9" t="n"/>
     </row>
     <row r="171">
       <c r="A171" s="5" t="n">
@@ -4667,6 +4735,7 @@
       </c>
       <c r="F171" s="7" t="n"/>
       <c r="G171" s="8" t="n"/>
+      <c r="S171" s="9" t="n"/>
     </row>
     <row r="172">
       <c r="A172" s="5" t="n">
@@ -4684,6 +4753,7 @@
       </c>
       <c r="F172" s="7" t="n"/>
       <c r="G172" s="8" t="n"/>
+      <c r="S172" s="9" t="n"/>
     </row>
     <row r="173">
       <c r="A173" s="5" t="n">
@@ -4723,7 +4793,7 @@
           <t>1-1/2"</t>
         </is>
       </c>
-      <c r="S173" t="inlineStr">
+      <c r="S173" s="9" t="inlineStr">
         <is>
           <t>180°F RINSE</t>
         </is>
@@ -4743,7 +4813,7 @@
       </c>
       <c r="F174" s="7" t="n"/>
       <c r="G174" s="8" t="n"/>
-      <c r="S174" t="inlineStr">
+      <c r="S174" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -4763,7 +4833,7 @@
       </c>
       <c r="F175" s="7" t="n"/>
       <c r="G175" s="8" t="n"/>
-      <c r="S175" t="inlineStr">
+      <c r="S175" s="9" t="inlineStr">
         <is>
           <t>SLIM JIM</t>
         </is>
@@ -4783,7 +4853,7 @@
       </c>
       <c r="F176" s="7" t="n"/>
       <c r="G176" s="8" t="n"/>
-      <c r="S176" t="inlineStr">
+      <c r="S176" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION PART OF ITEM #353</t>
         </is>
@@ -4805,6 +4875,7 @@
       </c>
       <c r="F177" s="7" t="n"/>
       <c r="G177" s="8" t="n"/>
+      <c r="S177" s="9" t="n"/>
     </row>
     <row r="178">
       <c r="A178" s="5" t="n">
@@ -4831,6 +4902,7 @@
         <f>IF(E178&gt;1,(1.732*D178*F178)/1000,(D178*F178)/1000)</f>
         <v/>
       </c>
+      <c r="S178" s="9" t="n"/>
     </row>
     <row r="179">
       <c r="A179" s="5" t="n">
@@ -4857,6 +4929,7 @@
         <f>IF(E179&gt;1,(1.732*D179*F179)/1000,(D179*F179)/1000)</f>
         <v/>
       </c>
+      <c r="S179" s="9" t="n"/>
     </row>
     <row r="180">
       <c r="A180" s="5" t="n">
@@ -4883,6 +4956,7 @@
         <f>IF(E180&gt;1,(1.732*D180*F180)/1000,(D180*F180)/1000)</f>
         <v/>
       </c>
+      <c r="S180" s="9" t="n"/>
     </row>
     <row r="181">
       <c r="A181" s="5" t="n">
@@ -4900,6 +4974,7 @@
       </c>
       <c r="F181" s="7" t="n"/>
       <c r="G181" s="8" t="n"/>
+      <c r="S181" s="9" t="n"/>
     </row>
     <row r="182">
       <c r="A182" s="5" t="n">
@@ -4917,6 +4992,7 @@
       </c>
       <c r="F182" s="7" t="n"/>
       <c r="G182" s="8" t="n"/>
+      <c r="S182" s="9" t="n"/>
     </row>
     <row r="183">
       <c r="A183" s="5" t="n">
@@ -4948,6 +5024,7 @@
           <t>1/4"</t>
         </is>
       </c>
+      <c r="S183" s="9" t="n"/>
     </row>
     <row r="184">
       <c r="A184" s="5" t="n">
@@ -4982,6 +5059,7 @@
       <c r="J184" t="n">
         <v>10</v>
       </c>
+      <c r="S184" s="9" t="n"/>
     </row>
     <row r="185">
       <c r="A185" s="5" t="n">
@@ -4997,6 +5075,7 @@
       </c>
       <c r="F185" s="7" t="n"/>
       <c r="G185" s="8" t="n"/>
+      <c r="S185" s="9" t="n"/>
     </row>
     <row r="186">
       <c r="A186" s="5" t="n">
@@ -5020,7 +5099,7 @@
       <c r="J186" t="n">
         <v>10</v>
       </c>
-      <c r="S186" t="inlineStr">
+      <c r="S186" s="9" t="inlineStr">
         <is>
           <t>FOR ITEM #358 #371</t>
         </is>
@@ -5042,6 +5121,7 @@
       </c>
       <c r="F187" s="7" t="n"/>
       <c r="G187" s="8" t="n"/>
+      <c r="S187" s="9" t="n"/>
     </row>
     <row r="188">
       <c r="A188" s="5" t="n">
@@ -5068,6 +5148,7 @@
         <f>IF(E188&gt;1,(1.732*D188*F188)/1000,(D188*F188)/1000)</f>
         <v/>
       </c>
+      <c r="S188" s="9" t="n"/>
     </row>
     <row r="189">
       <c r="A189" s="5" t="n">
@@ -5096,6 +5177,7 @@
           <t>3/4"</t>
         </is>
       </c>
+      <c r="S189" s="9" t="n"/>
     </row>
     <row r="190">
       <c r="A190" s="5" t="n">
@@ -5124,6 +5206,7 @@
           <t>1/2"</t>
         </is>
       </c>
+      <c r="S190" s="9" t="n"/>
     </row>
     <row r="191">
       <c r="A191" s="5" t="n">
@@ -5141,6 +5224,7 @@
       </c>
       <c r="F191" s="7" t="n"/>
       <c r="G191" s="8" t="n"/>
+      <c r="S191" s="9" t="n"/>
     </row>
     <row r="192">
       <c r="A192" s="5" t="n">
@@ -5158,6 +5242,7 @@
       </c>
       <c r="F192" s="7" t="n"/>
       <c r="G192" s="8" t="n"/>
+      <c r="S192" s="9" t="n"/>
     </row>
     <row r="193">
       <c r="A193" s="5" t="n">
@@ -5173,7 +5258,7 @@
       </c>
       <c r="F193" s="7" t="n"/>
       <c r="G193" s="8" t="n"/>
-      <c r="S193" t="inlineStr">
+      <c r="S193" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION PART OF ITEM #353</t>
         </is>
@@ -5193,7 +5278,7 @@
       </c>
       <c r="F194" s="7" t="n"/>
       <c r="G194" s="8" t="n"/>
-      <c r="S194" t="inlineStr">
+      <c r="S194" s="9" t="inlineStr">
         <is>
           <t>SLIM JIM</t>
         </is>
@@ -5231,7 +5316,7 @@
           <t>1-1/2"</t>
         </is>
       </c>
-      <c r="S195" t="inlineStr">
+      <c r="S195" s="9" t="inlineStr">
         <is>
           <t>WITH SOAP &amp; TOWEL DISPENSER</t>
         </is>
@@ -5262,6 +5347,7 @@
         <f>IF(E196&gt;1,(1.732*D196*F196)/1000,(D196*F196)/1000)</f>
         <v/>
       </c>
+      <c r="S196" s="9" t="n"/>
     </row>
     <row r="197">
       <c r="A197" s="5" t="n">
@@ -5279,6 +5365,7 @@
       </c>
       <c r="F197" s="7" t="n"/>
       <c r="G197" s="8" t="n"/>
+      <c r="S197" s="9" t="n"/>
     </row>
     <row r="198">
       <c r="A198" s="5" t="n">
@@ -5305,7 +5392,7 @@
         <f>IF(E198&gt;1,(1.732*D198*F198)/1000,(D198*F198)/1000)</f>
         <v/>
       </c>
-      <c r="S198" t="inlineStr">
+      <c r="S198" s="9" t="inlineStr">
         <is>
           <t>BY OS&amp;E</t>
         </is>
@@ -5336,7 +5423,7 @@
         <f>IF(E199&gt;1,(1.732*D199*F199)/1000,(D199*F199)/1000)</f>
         <v/>
       </c>
-      <c r="S199" t="inlineStr">
+      <c r="S199" s="9" t="inlineStr">
         <is>
           <t>BY OS&amp;E</t>
         </is>
@@ -5356,7 +5443,7 @@
       </c>
       <c r="F200" s="7" t="n"/>
       <c r="G200" s="8" t="n"/>
-      <c r="S200" t="inlineStr">
+      <c r="S200" s="9" t="inlineStr">
         <is>
           <t>SLIM JIM</t>
         </is>
@@ -5378,6 +5465,7 @@
       </c>
       <c r="F201" s="7" t="n"/>
       <c r="G201" s="8" t="n"/>
+      <c r="S201" s="9" t="n"/>
     </row>
     <row r="202">
       <c r="A202" s="5" t="n">
@@ -5395,6 +5483,7 @@
       </c>
       <c r="F202" s="7" t="n"/>
       <c r="G202" s="8" t="n"/>
+      <c r="S202" s="9" t="n"/>
     </row>
     <row r="203">
       <c r="A203" s="5" t="n">
@@ -5410,7 +5499,7 @@
       </c>
       <c r="F203" s="7" t="n"/>
       <c r="G203" s="8" t="n"/>
-      <c r="S203" t="inlineStr">
+      <c r="S203" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION PART OF ITEM #394</t>
         </is>
@@ -5441,7 +5530,7 @@
         <f>IF(E204&gt;1,(1.732*D204*F204)/1000,(D204*F204)/1000)</f>
         <v/>
       </c>
-      <c r="S204" t="inlineStr">
+      <c r="S204" s="9" t="inlineStr">
         <is>
           <t>BY OS&amp;E</t>
         </is>
@@ -5472,7 +5561,7 @@
         <f>IF(E205&gt;1,(1.732*D205*F205)/1000,(D205*F205)/1000)</f>
         <v/>
       </c>
-      <c r="S205" t="inlineStr">
+      <c r="S205" s="9" t="inlineStr">
         <is>
           <t>BY OS&amp;E</t>
         </is>
@@ -5492,7 +5581,7 @@
       </c>
       <c r="F206" s="7" t="n"/>
       <c r="G206" s="8" t="n"/>
-      <c r="S206" t="inlineStr">
+      <c r="S206" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION WITH PLATE STORAGE SHELVING</t>
         </is>
@@ -5514,6 +5603,7 @@
       </c>
       <c r="F207" s="7" t="n"/>
       <c r="G207" s="8" t="n"/>
+      <c r="S207" s="9" t="n"/>
     </row>
     <row r="208">
       <c r="A208" s="5" t="n">
@@ -5529,7 +5619,7 @@
       </c>
       <c r="F208" s="7" t="n"/>
       <c r="G208" s="8" t="n"/>
-      <c r="S208" t="inlineStr">
+      <c r="S208" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -5551,6 +5641,7 @@
       </c>
       <c r="F209" s="7" t="n"/>
       <c r="G209" s="8" t="n"/>
+      <c r="S209" s="9" t="n"/>
     </row>
     <row r="210">
       <c r="A210" s="5" t="n">
@@ -5568,6 +5659,7 @@
       </c>
       <c r="F210" s="7" t="n"/>
       <c r="G210" s="8" t="n"/>
+      <c r="S210" s="9" t="n"/>
     </row>
     <row r="211">
       <c r="A211" s="5" t="n">
@@ -5585,6 +5677,7 @@
       </c>
       <c r="F211" s="7" t="n"/>
       <c r="G211" s="8" t="n"/>
+      <c r="S211" s="9" t="n"/>
     </row>
     <row r="212">
       <c r="A212" s="5" t="n">
@@ -5602,6 +5695,7 @@
       </c>
       <c r="F212" s="7" t="n"/>
       <c r="G212" s="8" t="n"/>
+      <c r="S212" s="9" t="n"/>
     </row>
     <row r="213">
       <c r="A213" s="3" t="inlineStr">
@@ -5642,7 +5736,7 @@
       </c>
       <c r="F214" s="7" t="n"/>
       <c r="G214" s="8" t="n"/>
-      <c r="S214" t="inlineStr">
+      <c r="S214" s="9" t="inlineStr">
         <is>
           <t>MILLWORK / BY GENERAL CONTRACTOR</t>
         </is>
@@ -5673,7 +5767,7 @@
         <f>IF(E215&gt;1,(1.732*D215*F215)/1000,(D215*F215)/1000)</f>
         <v/>
       </c>
-      <c r="S215" t="inlineStr">
+      <c r="S215" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -5711,7 +5805,7 @@
           <t>1-1/2"</t>
         </is>
       </c>
-      <c r="S216" t="inlineStr">
+      <c r="S216" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATIONWITH SOAP AND TOWEL DISPENSER PART OF ITEM #402</t>
         </is>
@@ -5731,7 +5825,7 @@
       </c>
       <c r="F217" s="7" t="n"/>
       <c r="G217" s="8" t="n"/>
-      <c r="S217" t="inlineStr">
+      <c r="S217" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -5753,6 +5847,7 @@
       </c>
       <c r="F218" s="7" t="n"/>
       <c r="G218" s="8" t="n"/>
+      <c r="S218" s="9" t="n"/>
     </row>
     <row r="219">
       <c r="A219" s="5" t="n">
@@ -5768,7 +5863,7 @@
       </c>
       <c r="F219" s="7" t="n"/>
       <c r="G219" s="8" t="n"/>
-      <c r="S219" t="inlineStr">
+      <c r="S219" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION PART OF ITEM #402</t>
         </is>
@@ -5788,7 +5883,7 @@
       </c>
       <c r="F220" s="7" t="n"/>
       <c r="G220" s="8" t="n"/>
-      <c r="S220" t="inlineStr">
+      <c r="S220" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION RECESSED PART OF ITEM #402</t>
         </is>
@@ -5819,6 +5914,7 @@
         <f>IF(E221&gt;1,(1.732*D221*F221)/1000,(D221*F221)/1000)</f>
         <v/>
       </c>
+      <c r="S221" s="9" t="n"/>
     </row>
     <row r="222">
       <c r="A222" s="5" t="n">
@@ -5836,6 +5932,7 @@
       </c>
       <c r="F222" s="7" t="n"/>
       <c r="G222" s="8" t="n"/>
+      <c r="S222" s="9" t="n"/>
     </row>
     <row r="223">
       <c r="A223" s="5" t="n">
@@ -5853,6 +5950,7 @@
       </c>
       <c r="F223" s="7" t="n"/>
       <c r="G223" s="8" t="n"/>
+      <c r="S223" s="9" t="n"/>
     </row>
     <row r="224">
       <c r="A224" s="5" t="n">
@@ -5884,7 +5982,7 @@
           <t>1"</t>
         </is>
       </c>
-      <c r="S224" t="inlineStr">
+      <c r="S224" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION WITH PAN SLIDES PART OF ITEM #402</t>
         </is>
@@ -5904,7 +6002,7 @@
       </c>
       <c r="F225" s="7" t="n"/>
       <c r="G225" s="8" t="n"/>
-      <c r="S225" t="inlineStr">
+      <c r="S225" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION MOBILE</t>
         </is>
@@ -5935,6 +6033,7 @@
         <f>IF(E226&gt;1,(1.732*D226*F226)/1000,(D226*F226)/1000)</f>
         <v/>
       </c>
+      <c r="S226" s="9" t="n"/>
     </row>
     <row r="227">
       <c r="A227" s="5" t="n">
@@ -5968,7 +6067,7 @@
           <t>1-1/2"</t>
         </is>
       </c>
-      <c r="S227" t="inlineStr">
+      <c r="S227" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION PART OF ITEM #402</t>
         </is>
@@ -5990,6 +6089,7 @@
       </c>
       <c r="F228" s="7" t="n"/>
       <c r="G228" s="8" t="n"/>
+      <c r="S228" s="9" t="n"/>
     </row>
     <row r="229">
       <c r="A229" s="5" t="n">
@@ -6005,7 +6105,7 @@
       </c>
       <c r="F229" s="7" t="n"/>
       <c r="G229" s="8" t="n"/>
-      <c r="S229" t="inlineStr">
+      <c r="S229" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION RECESSED PART OF ITEM #402</t>
         </is>
@@ -6036,6 +6136,7 @@
         <f>IF(E230&gt;1,(1.732*D230*F230)/1000,(D230*F230)/1000)</f>
         <v/>
       </c>
+      <c r="S230" s="9" t="n"/>
     </row>
     <row r="231">
       <c r="A231" s="5" t="n">
@@ -6067,7 +6168,7 @@
           <t>1"</t>
         </is>
       </c>
-      <c r="S231" t="inlineStr">
+      <c r="S231" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION WITH PAN SLIDES PART OF ITEM #402</t>
         </is>
@@ -6089,6 +6190,7 @@
       </c>
       <c r="F232" s="7" t="n"/>
       <c r="G232" s="8" t="n"/>
+      <c r="S232" s="9" t="n"/>
     </row>
     <row r="233">
       <c r="A233" s="5" t="n">
@@ -6106,6 +6208,7 @@
       </c>
       <c r="F233" s="7" t="n"/>
       <c r="G233" s="8" t="n"/>
+      <c r="S233" s="9" t="n"/>
     </row>
     <row r="234">
       <c r="A234" s="5" t="n">
@@ -6121,7 +6224,7 @@
       </c>
       <c r="F234" s="7" t="n"/>
       <c r="G234" s="8" t="n"/>
-      <c r="S234" t="inlineStr">
+      <c r="S234" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION MOBILE</t>
         </is>
@@ -6152,6 +6255,7 @@
         <f>IF(E235&gt;1,(1.732*D235*F235)/1000,(D235*F235)/1000)</f>
         <v/>
       </c>
+      <c r="S235" s="9" t="n"/>
     </row>
     <row r="236">
       <c r="A236" s="5" t="n">
@@ -6167,7 +6271,7 @@
       </c>
       <c r="F236" s="7" t="n"/>
       <c r="G236" s="8" t="n"/>
-      <c r="S236" t="inlineStr">
+      <c r="S236" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION RECESSED PART OF ITEM #402</t>
         </is>
@@ -6198,6 +6302,7 @@
         <f>IF(E237&gt;1,(1.732*D237*F237)/1000,(D237*F237)/1000)</f>
         <v/>
       </c>
+      <c r="S237" s="9" t="n"/>
     </row>
     <row r="238">
       <c r="A238" s="5" t="n">
@@ -6215,6 +6320,7 @@
       </c>
       <c r="F238" s="7" t="n"/>
       <c r="G238" s="8" t="n"/>
+      <c r="S238" s="9" t="n"/>
     </row>
     <row r="239">
       <c r="A239" s="5" t="n">
@@ -6246,7 +6352,7 @@
           <t>1"</t>
         </is>
       </c>
-      <c r="S239" t="inlineStr">
+      <c r="S239" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION WITH PAN SLIDES PART OF ITEM #402</t>
         </is>
@@ -6284,7 +6390,7 @@
           <t>1-1/2"</t>
         </is>
       </c>
-      <c r="S240" t="inlineStr">
+      <c r="S240" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION PART OF ITEM #402</t>
         </is>
@@ -6315,7 +6421,7 @@
         <f>IF(E241&gt;1,(1.732*D241*F241)/1000,(D241*F241)/1000)</f>
         <v/>
       </c>
-      <c r="S241" t="inlineStr">
+      <c r="S241" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION REMOTE REFRIGERATION PART OF ITEM #402</t>
         </is>
@@ -6337,6 +6443,7 @@
       </c>
       <c r="F242" s="7" t="n"/>
       <c r="G242" s="8" t="n"/>
+      <c r="S242" s="9" t="n"/>
     </row>
     <row r="243">
       <c r="A243" s="5" t="inlineStr">
@@ -6356,43 +6463,45 @@
       </c>
       <c r="F243" s="7" t="n"/>
       <c r="G243" s="8" t="n"/>
+      <c r="S243" s="9" t="n"/>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr"/>
     </row>
     <row r="245">
-      <c r="A245" s="9" t="inlineStr">
+      <c r="A245" s="10" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="G245" s="10">
+      <c r="G245" s="11">
         <f>SUM(G7:G244)</f>
         <v/>
       </c>
-      <c r="J245" s="10">
+      <c r="J245" s="11">
         <f>SUM(J7:J244)</f>
         <v/>
       </c>
-      <c r="M245" s="10">
+      <c r="M245" s="11">
         <f>SUM(M7:M244)</f>
         <v/>
       </c>
-      <c r="N245" s="10">
+      <c r="N245" s="11">
         <f>SUM(N7:N244)</f>
         <v/>
       </c>
-      <c r="O245" s="10">
+      <c r="O245" s="11">
         <f>SUM(O7:O244)</f>
         <v/>
       </c>
-      <c r="P245" s="10">
+      <c r="P245" s="11">
         <f>SUM(P7:P244)</f>
         <v/>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="landscape" paperSize="3" fitToHeight="0"/>
   <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
 </worksheet>
 </file>